--- a/REGULAR/OJT/AMBION DORINDA.xlsx
+++ b/REGULAR/OJT/AMBION DORINDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5FF60D-4E7C-49C6-918B-E500712A88FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39EBD22-E4A7-4AA4-936E-48423BCD7E4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="429">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3719,7 +3719,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K697" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K698" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4097,12 +4097,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K697"/>
+  <dimension ref="A2:K698"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A619" activePane="bottomLeft"/>
       <selection activeCell="F15" sqref="F15"/>
-      <selection pane="bottomLeft" activeCell="B621" sqref="B621"/>
+      <selection pane="bottomLeft" activeCell="B631" sqref="B631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4275,7 +4275,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>145.875</v>
+        <v>144.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12784,7 +12784,7 @@
       <c r="H384" s="39"/>
       <c r="I384" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>145.875</v>
+        <v>144.875</v>
       </c>
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
@@ -18314,10 +18314,10 @@
       </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A630" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B630" s="20"/>
+      <c r="A630" s="40"/>
+      <c r="B630" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C630" s="13"/>
       <c r="D630" s="39"/>
       <c r="E630" s="9"/>
@@ -18326,14 +18326,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H630" s="39"/>
+      <c r="H630" s="39">
+        <v>1</v>
+      </c>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="20"/>
+      <c r="K630" s="48">
+        <v>45005</v>
+      </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -18351,7 +18355,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18369,7 +18373,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18387,7 +18391,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18405,7 +18409,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18423,7 +18427,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18441,7 +18445,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18459,7 +18463,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18477,7 +18481,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18495,7 +18499,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18513,43 +18517,43 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B641" s="15"/>
-      <c r="C641" s="41"/>
-      <c r="D641" s="42"/>
+        <v>45292</v>
+      </c>
+      <c r="B641" s="20"/>
+      <c r="C641" s="13"/>
+      <c r="D641" s="39"/>
       <c r="E641" s="9"/>
-      <c r="F641" s="15"/>
-      <c r="G641" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H641" s="42"/>
+      <c r="F641" s="20"/>
+      <c r="G641" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H641" s="39"/>
       <c r="I641" s="9"/>
-      <c r="J641" s="12"/>
-      <c r="K641" s="15"/>
+      <c r="J641" s="11"/>
+      <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B642" s="20"/>
-      <c r="C642" s="13"/>
-      <c r="D642" s="39"/>
+        <v>45323</v>
+      </c>
+      <c r="B642" s="15"/>
+      <c r="C642" s="41"/>
+      <c r="D642" s="42"/>
       <c r="E642" s="9"/>
-      <c r="F642" s="20"/>
-      <c r="G642" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H642" s="39"/>
+      <c r="F642" s="15"/>
+      <c r="G642" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H642" s="42"/>
       <c r="I642" s="9"/>
-      <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
+      <c r="J642" s="12"/>
+      <c r="K642" s="15"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18567,7 +18571,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18585,7 +18589,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18603,7 +18607,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18621,7 +18625,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18639,7 +18643,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18657,7 +18661,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18675,7 +18679,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18693,7 +18697,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18711,7 +18715,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18729,7 +18733,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18747,7 +18751,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18765,7 +18769,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18783,7 +18787,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18801,7 +18805,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18819,7 +18823,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18837,7 +18841,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18855,7 +18859,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18873,7 +18877,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18891,7 +18895,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18909,7 +18913,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18927,7 +18931,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18945,7 +18949,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18963,7 +18967,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18981,7 +18985,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18999,7 +19003,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -19017,7 +19021,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -19035,7 +19039,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -19053,7 +19057,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19071,7 +19075,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19089,7 +19093,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19107,7 +19111,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19125,7 +19129,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19143,7 +19147,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19161,7 +19165,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19179,7 +19183,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19197,7 +19201,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19215,7 +19219,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19233,7 +19237,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19251,7 +19255,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19269,7 +19273,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19287,7 +19291,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19305,7 +19309,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19323,7 +19327,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19341,7 +19345,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19359,7 +19363,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19377,7 +19381,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19395,7 +19399,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19413,7 +19417,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19431,7 +19435,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19449,7 +19453,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19467,7 +19471,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19485,7 +19489,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19503,7 +19507,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19521,7 +19525,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19536,6 +19540,24 @@
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A698" s="40">
+        <v>47027</v>
+      </c>
+      <c r="B698" s="20"/>
+      <c r="C698" s="13"/>
+      <c r="D698" s="39"/>
+      <c r="E698" s="9"/>
+      <c r="F698" s="20"/>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H698" s="39"/>
+      <c r="I698" s="9"/>
+      <c r="J698" s="11"/>
+      <c r="K698" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/AMBION DORINDA.xlsx
+++ b/REGULAR/OJT/AMBION DORINDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39EBD22-E4A7-4AA4-936E-48423BCD7E4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="429">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1327,7 +1326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2184,7 +2183,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2226,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2290,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2350,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2416,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2479,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2577,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2636,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,7 +2701,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2744,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2819,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,7 +3005,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,7 +3071,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3130,7 +3129,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3195,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3252,7 +3251,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3327,7 +3326,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3370,7 +3369,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,7 +3435,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3491,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,7 +3589,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3653,7 +3652,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3719,25 +3718,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K698" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K698" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3749,13 +3748,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3764,14 +3763,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4075,7 +4074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4085,7 +4084,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4093,34 +4092,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K698"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A619" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A619" activePane="bottomLeft"/>
       <selection activeCell="F15" sqref="F15"/>
-      <selection pane="bottomLeft" activeCell="B631" sqref="B631"/>
+      <selection pane="bottomLeft" activeCell="D619" sqref="D619"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4141,7 +4140,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4161,7 +4160,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4183,7 +4182,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4191,7 +4190,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4204,7 +4203,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -4221,7 +4220,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4265,7 +4264,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.860499999999945</v>
+        <v>48.110499999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4275,12 +4274,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.875</v>
+        <v>145.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4302,7 +4301,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>33970</v>
       </c>
@@ -4320,7 +4319,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34001</v>
       </c>
@@ -4338,7 +4337,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34029</v>
       </c>
@@ -4356,7 +4355,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34060</v>
       </c>
@@ -4376,7 +4375,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34090</v>
       </c>
@@ -4396,7 +4395,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34121</v>
       </c>
@@ -4416,7 +4415,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34151</v>
       </c>
@@ -4436,7 +4435,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34182</v>
       </c>
@@ -4456,7 +4455,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34213</v>
       </c>
@@ -4476,7 +4475,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34243</v>
       </c>
@@ -4496,7 +4495,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34274</v>
       </c>
@@ -4516,7 +4515,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>34304</v>
       </c>
@@ -4536,7 +4535,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>45</v>
       </c>
@@ -4558,7 +4557,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>34335</v>
       </c>
@@ -4578,7 +4577,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34366</v>
       </c>
@@ -4598,7 +4597,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>34394</v>
       </c>
@@ -4618,7 +4617,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34425</v>
       </c>
@@ -4640,7 +4639,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>34455</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>34486</v>
       </c>
@@ -4684,7 +4683,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>34516</v>
       </c>
@@ -4704,7 +4703,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>34547</v>
       </c>
@@ -4724,7 +4723,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>34578</v>
       </c>
@@ -4744,7 +4743,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>34608</v>
       </c>
@@ -4764,7 +4763,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>34639</v>
       </c>
@@ -4784,7 +4783,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>34669</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>44</v>
       </c>
@@ -4832,7 +4831,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34700</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>34731</v>
       </c>
@@ -4878,7 +4877,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34759</v>
       </c>
@@ -4898,7 +4897,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>34790</v>
       </c>
@@ -4918,7 +4917,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>34820</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>34851</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>34881</v>
       </c>
@@ -4990,7 +4989,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>34912</v>
       </c>
@@ -5010,7 +5009,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>34943</v>
       </c>
@@ -5030,7 +5029,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>34973</v>
       </c>
@@ -5050,7 +5049,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35004</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35034</v>
       </c>
@@ -5100,7 +5099,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>54</v>
       </c>
@@ -5122,7 +5121,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35065</v>
       </c>
@@ -5142,7 +5141,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>35096</v>
       </c>
@@ -5162,7 +5161,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35125</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>35156</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35186</v>
       </c>
@@ -5238,7 +5237,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>35217</v>
       </c>
@@ -5258,7 +5257,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35247</v>
       </c>
@@ -5278,7 +5277,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35278</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>35309</v>
       </c>
@@ -5324,7 +5323,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35339</v>
       </c>
@@ -5344,7 +5343,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35370</v>
       </c>
@@ -5364,7 +5363,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>35400</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>53</v>
       </c>
@@ -5412,7 +5411,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>35431</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>35462</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35490</v>
       </c>
@@ -5484,7 +5483,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>35521</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>35551</v>
       </c>
@@ -5530,7 +5529,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>35582</v>
       </c>
@@ -5550,7 +5549,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>35612</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>56</v>
@@ -5598,7 +5597,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>35643</v>
       </c>
@@ -5618,7 +5617,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>35674</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>35683</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>35704</v>
       </c>
@@ -5668,7 +5667,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>35735</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>35745</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>35765</v>
       </c>
@@ -5716,7 +5715,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>52</v>
       </c>
@@ -5738,7 +5737,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>35796</v>
       </c>
@@ -5762,7 +5761,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>35827</v>
       </c>
@@ -5782,7 +5781,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>35855</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>35886</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>35916</v>
       </c>
@@ -5852,7 +5851,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>35947</v>
       </c>
@@ -5876,7 +5875,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>35977</v>
       </c>
@@ -5900,7 +5899,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36008</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>36028</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>80</v>
@@ -5946,7 +5945,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>36039</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>82</v>
@@ -5992,7 +5991,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36069</v>
       </c>
@@ -6016,7 +6015,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36100</v>
       </c>
@@ -6040,7 +6039,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36130</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>86</v>
@@ -6086,7 +6085,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>46</v>
@@ -6106,7 +6105,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>51</v>
       </c>
@@ -6128,7 +6127,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36161</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>36178</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>93</v>
@@ -6174,7 +6173,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36192</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -6222,7 +6221,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>94</v>
@@ -6244,7 +6243,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>93</v>
@@ -6264,7 +6263,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>36220</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>36229</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>95</v>
@@ -6310,7 +6309,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36251</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>36262</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>99</v>
@@ -6356,7 +6355,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36281</v>
       </c>
@@ -6380,7 +6379,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36312</v>
       </c>
@@ -6404,7 +6403,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36342</v>
       </c>
@@ -6428,7 +6427,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36373</v>
       </c>
@@ -6452,7 +6451,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36404</v>
       </c>
@@ -6476,7 +6475,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>36434</v>
       </c>
@@ -6500,7 +6499,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36465</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>106</v>
@@ -6546,7 +6545,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36495</v>
       </c>
@@ -6570,7 +6569,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>91</v>
       </c>
@@ -6592,7 +6591,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36526</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>109</v>
@@ -6638,7 +6637,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>36557</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>110</v>
@@ -6684,7 +6683,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36586</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>36602</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>111</v>
@@ -6730,7 +6729,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36617</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>36626</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>112</v>
@@ -6776,7 +6775,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>36647</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>36670</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>56</v>
@@ -6824,7 +6823,7 @@
         <v>36671</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>56</v>
@@ -6846,7 +6845,7 @@
         <v>36704</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>99</v>
@@ -6866,7 +6865,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>36678</v>
       </c>
@@ -6890,7 +6889,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36708</v>
       </c>
@@ -6916,7 +6915,7 @@
         <v>36713</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>115</v>
@@ -6936,7 +6935,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>36739</v>
       </c>
@@ -6960,7 +6959,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>36770</v>
       </c>
@@ -6984,7 +6983,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>36800</v>
       </c>
@@ -7008,7 +7007,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>36831</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>36844</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>119</v>
@@ -7056,7 +7055,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>36861</v>
       </c>
@@ -7080,7 +7079,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>120</v>
@@ -7102,7 +7101,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="47" t="s">
         <v>90</v>
       </c>
@@ -7124,7 +7123,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>36892</v>
       </c>
@@ -7148,7 +7147,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>36923</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>125</v>
@@ -7194,7 +7193,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>36951</v>
       </c>
@@ -7218,7 +7217,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>36982</v>
       </c>
@@ -7242,7 +7241,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>37012</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>37040</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>128</v>
@@ -7288,7 +7287,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37043</v>
       </c>
@@ -7312,7 +7311,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37073</v>
       </c>
@@ -7338,7 +7337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>134</v>
@@ -7358,7 +7357,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37104</v>
       </c>
@@ -7382,7 +7381,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>37135</v>
       </c>
@@ -7402,7 +7401,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37165</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>37186</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>131</v>
@@ -7448,7 +7447,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>37196</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>56</v>
@@ -7496,7 +7495,7 @@
         <v>37210</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>47</v>
@@ -7518,7 +7517,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>132</v>
@@ -7538,7 +7537,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37226</v>
       </c>
@@ -7562,7 +7561,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>89</v>
       </c>
@@ -7584,7 +7583,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>37257</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>138</v>
@@ -7632,7 +7631,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>37288</v>
       </c>
@@ -7658,7 +7657,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>49</v>
@@ -7680,7 +7679,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>56</v>
@@ -7702,7 +7701,7 @@
         <v>37316</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>55</v>
@@ -7724,7 +7723,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>139</v>
@@ -7746,7 +7745,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37316</v>
       </c>
@@ -7770,7 +7769,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>37347</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>37348</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>141</v>
@@ -7816,7 +7815,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37377</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>56</v>
@@ -7864,7 +7863,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>37408</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37438</v>
       </c>
@@ -7906,7 +7905,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>37469</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>37483</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>56</v>
@@ -7954,7 +7953,7 @@
         <v>37489</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>142</v>
@@ -7974,7 +7973,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>37500</v>
       </c>
@@ -7994,7 +7993,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>37530</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>37552</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>80</v>
@@ -8040,7 +8039,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>37561</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>114</v>
@@ -8088,7 +8087,7 @@
         <v>37574</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>63</v>
@@ -8110,7 +8109,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>150</v>
@@ -8130,7 +8129,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>37591</v>
       </c>
@@ -8156,7 +8155,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>149</v>
@@ -8176,7 +8175,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
         <v>92</v>
       </c>
@@ -8198,7 +8197,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>37622</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>37642</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>63</v>
@@ -8246,7 +8245,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>157</v>
@@ -8266,7 +8265,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>37653</v>
       </c>
@@ -8290,7 +8289,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>37681</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>37691</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>159</v>
@@ -8338,7 +8337,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37712</v>
       </c>
@@ -8362,7 +8361,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>37742</v>
       </c>
@@ -8388,7 +8387,7 @@
         <v>37749</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>163</v>
@@ -8410,7 +8409,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>37773</v>
       </c>
@@ -8434,7 +8433,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37803</v>
       </c>
@@ -8460,7 +8459,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>165</v>
@@ -8480,7 +8479,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>37834</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>166</v>
@@ -8526,7 +8525,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>37865</v>
       </c>
@@ -8552,7 +8551,7 @@
         <v>37883</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>167</v>
@@ -8572,7 +8571,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>37895</v>
       </c>
@@ -8598,7 +8597,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>56</v>
@@ -8620,7 +8619,7 @@
         <v>37914</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>170</v>
@@ -8640,7 +8639,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>37926</v>
       </c>
@@ -8666,7 +8665,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>169</v>
@@ -8686,7 +8685,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>37956</v>
       </c>
@@ -8710,7 +8709,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>156</v>
       </c>
@@ -8732,7 +8731,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>37987</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38018</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>38050</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>177</v>
@@ -8804,7 +8803,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38047</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>38049</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>179</v>
@@ -8850,7 +8849,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="48"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38078</v>
       </c>
@@ -8874,7 +8873,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>56</v>
@@ -8894,7 +8893,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>49</v>
@@ -8914,7 +8913,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>180</v>
@@ -8934,7 +8933,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38108</v>
       </c>
@@ -8958,7 +8957,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>181</v>
@@ -8978,7 +8977,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38139</v>
       </c>
@@ -9006,7 +9005,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>75</v>
@@ -9026,7 +9025,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>38169</v>
       </c>
@@ -9050,7 +9049,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>49</v>
@@ -9070,7 +9069,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>133</v>
@@ -9090,7 +9089,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>38200</v>
       </c>
@@ -9114,7 +9113,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>76</v>
@@ -9134,7 +9133,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>38231</v>
       </c>
@@ -9158,7 +9157,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>56</v>
@@ -9178,7 +9177,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>159</v>
@@ -9198,7 +9197,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>38261</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>38274</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>114</v>
@@ -9246,7 +9245,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>182</v>
@@ -9266,7 +9265,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>38292</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>56</v>
@@ -9314,7 +9313,7 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>183</v>
@@ -9334,7 +9333,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>38322</v>
       </c>
@@ -9358,7 +9357,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="47" t="s">
         <v>155</v>
       </c>
@@ -9380,7 +9379,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>38353</v>
       </c>
@@ -9404,7 +9403,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>187</v>
@@ -9426,7 +9425,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>38384</v>
       </c>
@@ -9450,7 +9449,7 @@
         <v>38440</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>188</v>
@@ -9472,7 +9471,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>38412</v>
       </c>
@@ -9496,7 +9495,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>186</v>
@@ -9514,7 +9513,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>189</v>
@@ -9534,7 +9533,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38443</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>56</v>
@@ -9582,7 +9581,7 @@
         <v>38465</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>56</v>
@@ -9604,7 +9603,7 @@
         <v>38471</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>190</v>
@@ -9624,7 +9623,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>38473</v>
       </c>
@@ -9650,7 +9649,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>81</v>
@@ -9672,7 +9671,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>192</v>
@@ -9692,7 +9691,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>38504</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>38517</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>114</v>
@@ -9740,7 +9739,7 @@
         <v>38524</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>109</v>
@@ -9760,7 +9759,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>38534</v>
       </c>
@@ -9784,7 +9783,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>38565</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>38580</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>170</v>
@@ -9832,7 +9831,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>38596</v>
       </c>
@@ -9856,7 +9855,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>38626</v>
       </c>
@@ -9880,7 +9879,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>38657</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>38670</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>200</v>
@@ -9926,7 +9925,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>38687</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>38699</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>201</v>
@@ -9972,7 +9971,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="47" t="s">
         <v>154</v>
       </c>
@@ -9994,7 +9993,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>38718</v>
       </c>
@@ -10018,7 +10017,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>202</v>
@@ -10038,7 +10037,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>38749</v>
       </c>
@@ -10062,7 +10061,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>38777</v>
       </c>
@@ -10086,7 +10085,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>38808</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>49</v>
@@ -10134,7 +10133,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>204</v>
@@ -10154,7 +10153,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>38838</v>
       </c>
@@ -10178,7 +10177,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>38869</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>56</v>
@@ -10226,7 +10225,7 @@
         <v>38895</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>158</v>
@@ -10246,7 +10245,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>38899</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>56</v>
@@ -10294,7 +10293,7 @@
         <v>38904</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>56</v>
@@ -10316,7 +10315,7 @@
         <v>38910</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>81</v>
@@ -10338,7 +10337,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>81</v>
@@ -10360,7 +10359,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>56</v>
@@ -10382,7 +10381,7 @@
         <v>38929</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>206</v>
@@ -10402,7 +10401,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>38930</v>
       </c>
@@ -10428,7 +10427,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>56</v>
@@ -10450,7 +10449,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>49</v>
@@ -10472,7 +10471,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>56</v>
@@ -10494,7 +10493,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>56</v>
@@ -10516,7 +10515,7 @@
         <v>38960</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>207</v>
@@ -10538,7 +10537,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>38961</v>
       </c>
@@ -10562,7 +10561,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>38991</v>
       </c>
@@ -10588,7 +10587,7 @@
         <v>39008</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>120</v>
@@ -10610,7 +10609,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>120</v>
@@ -10632,7 +10631,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>215</v>
@@ -10652,7 +10651,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39022</v>
       </c>
@@ -10676,7 +10675,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>39052</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>217</v>
@@ -10724,7 +10723,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>218</v>
@@ -10744,7 +10743,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="47" t="s">
         <v>153</v>
       </c>
@@ -10766,7 +10765,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>39083</v>
       </c>
@@ -10792,7 +10791,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>229</v>
@@ -10812,7 +10811,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39114</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>39133</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>230</v>
@@ -10858,7 +10857,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>39142</v>
       </c>
@@ -10882,7 +10881,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39173</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>186</v>
@@ -10928,7 +10927,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>232</v>
@@ -10948,7 +10947,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>39203</v>
       </c>
@@ -10972,7 +10971,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>39234</v>
       </c>
@@ -10996,7 +10995,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39264</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>236</v>
@@ -11042,7 +11041,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>39295</v>
       </c>
@@ -11068,7 +11067,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>237</v>
@@ -11088,7 +11087,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39326</v>
       </c>
@@ -11114,7 +11113,7 @@
         <v>39336</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>56</v>
@@ -11134,7 +11133,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>238</v>
@@ -11154,7 +11153,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>39356</v>
       </c>
@@ -11178,7 +11177,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39387</v>
       </c>
@@ -11202,7 +11201,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>228</v>
@@ -11224,7 +11223,7 @@
         <v>39423</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>240</v>
@@ -11246,7 +11245,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39417</v>
       </c>
@@ -11270,7 +11269,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="47" t="s">
         <v>227</v>
       </c>
@@ -11292,7 +11291,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>39448</v>
       </c>
@@ -11318,7 +11317,7 @@
         <v>39475</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>245</v>
@@ -11338,7 +11337,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>39479</v>
       </c>
@@ -11362,7 +11361,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>39508</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>186</v>
@@ -11406,7 +11405,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>81</v>
@@ -11428,7 +11427,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>247</v>
@@ -11448,7 +11447,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>39539</v>
       </c>
@@ -11474,7 +11473,7 @@
         <v>39541</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>250</v>
@@ -11494,7 +11493,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>39569</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>39570</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>186</v>
@@ -11540,7 +11539,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>56</v>
@@ -11562,7 +11561,7 @@
         <v>39597</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>251</v>
@@ -11582,7 +11581,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>39600</v>
       </c>
@@ -11610,7 +11609,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>39630</v>
       </c>
@@ -11634,7 +11633,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>253</v>
@@ -11654,7 +11653,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>39661</v>
       </c>
@@ -11680,7 +11679,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>39692</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>56</v>
@@ -11728,7 +11727,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>255</v>
@@ -11748,7 +11747,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>39722</v>
       </c>
@@ -11774,7 +11773,7 @@
         <v>39745</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>56</v>
@@ -11796,7 +11795,7 @@
         <v>39748</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>256</v>
@@ -11816,7 +11815,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>39753</v>
       </c>
@@ -11842,7 +11841,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>56</v>
@@ -11864,7 +11863,7 @@
         <v>39771</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>56</v>
@@ -11886,7 +11885,7 @@
         <v>39778</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>257</v>
@@ -11906,7 +11905,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>39783</v>
       </c>
@@ -11930,7 +11929,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="47" t="s">
         <v>226</v>
       </c>
@@ -11952,7 +11951,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>39814</v>
       </c>
@@ -11978,7 +11977,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>263</v>
@@ -11998,7 +11997,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>39845</v>
       </c>
@@ -12022,7 +12021,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>39873</v>
       </c>
@@ -12044,7 +12043,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>265</v>
@@ -12064,7 +12063,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>39904</v>
       </c>
@@ -12090,7 +12089,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>39934</v>
       </c>
@@ -12116,7 +12115,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>186</v>
@@ -12136,7 +12135,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>56</v>
@@ -12158,7 +12157,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>267</v>
@@ -12178,7 +12177,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>39965</v>
       </c>
@@ -12202,7 +12201,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>39995</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>269</v>
@@ -12248,7 +12247,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>40026</v>
       </c>
@@ -12272,7 +12271,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40057</v>
       </c>
@@ -12298,7 +12297,7 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>56</v>
@@ -12320,7 +12319,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>271</v>
@@ -12342,7 +12341,7 @@
         <v>40072</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>40087</v>
       </c>
@@ -12368,7 +12367,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>40118</v>
       </c>
@@ -12394,7 +12393,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40148</v>
       </c>
@@ -12420,7 +12419,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>278</v>
@@ -12440,7 +12439,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="47" t="s">
         <v>225</v>
       </c>
@@ -12462,7 +12461,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>40179</v>
       </c>
@@ -12486,7 +12485,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>281</v>
@@ -12508,7 +12507,7 @@
         <v>40207</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>40210</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>282</v>
@@ -12554,7 +12553,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40238</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>40255</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>283</v>
@@ -12600,7 +12599,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>49</v>
@@ -12622,7 +12621,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>285</v>
@@ -12644,7 +12643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>40269</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>40299</v>
       </c>
@@ -12696,7 +12695,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>285</v>
@@ -12718,7 +12717,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>286</v>
@@ -12740,7 +12739,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40330</v>
       </c>
@@ -12766,7 +12765,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>297</v>
@@ -12784,12 +12783,12 @@
       <c r="H384" s="39"/>
       <c r="I384" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.875</v>
+        <v>145.125</v>
       </c>
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>40360</v>
       </c>
@@ -12813,7 +12812,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40391</v>
       </c>
@@ -12839,7 +12838,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>40422</v>
       </c>
@@ -12865,7 +12864,7 @@
         <v>40443</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>40452</v>
       </c>
@@ -12891,7 +12890,7 @@
         <v>40456</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>40483</v>
       </c>
@@ -12917,7 +12916,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>40513</v>
       </c>
@@ -12941,7 +12940,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="47" t="s">
         <v>224</v>
       </c>
@@ -12963,7 +12962,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>40544</v>
       </c>
@@ -12987,7 +12986,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40575</v>
       </c>
@@ -13011,7 +13010,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>40603</v>
       </c>
@@ -13037,7 +13036,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>186</v>
@@ -13057,7 +13056,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>186</v>
@@ -13077,7 +13076,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>307</v>
@@ -13097,7 +13096,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>40634</v>
       </c>
@@ -13121,7 +13120,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>40664</v>
       </c>
@@ -13147,7 +13146,7 @@
         <v>40688</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>56</v>
@@ -13169,7 +13168,7 @@
         <v>40693</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>309</v>
@@ -13189,7 +13188,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>40695</v>
       </c>
@@ -13213,7 +13212,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>40725</v>
       </c>
@@ -13239,7 +13238,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>56</v>
@@ -13259,7 +13258,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="48"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>313</v>
@@ -13279,7 +13278,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="48"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>40756</v>
       </c>
@@ -13303,7 +13302,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>132</v>
@@ -13323,7 +13322,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>40787</v>
       </c>
@@ -13347,7 +13346,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>81</v>
@@ -13367,7 +13366,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>314</v>
@@ -13387,7 +13386,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>40817</v>
       </c>
@@ -13411,7 +13410,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>315</v>
@@ -13431,7 +13430,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>40848</v>
       </c>
@@ -13455,7 +13454,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>40878</v>
       </c>
@@ -13479,7 +13478,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>317</v>
@@ -13499,7 +13498,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
         <v>223</v>
       </c>
@@ -13521,7 +13520,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>40909</v>
       </c>
@@ -13547,7 +13546,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>81</v>
@@ -13569,7 +13568,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>318</v>
@@ -13591,7 +13590,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>40940</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>186</v>
@@ -13635,7 +13634,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>186</v>
@@ -13655,7 +13654,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>319</v>
@@ -13675,7 +13674,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>40969</v>
       </c>
@@ -13699,7 +13698,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>41000</v>
       </c>
@@ -13723,7 +13722,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>56</v>
@@ -13743,7 +13742,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>327</v>
@@ -13763,7 +13762,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>41030</v>
       </c>
@@ -13787,7 +13786,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>56</v>
@@ -13807,7 +13806,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>328</v>
@@ -13827,7 +13826,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>41061</v>
       </c>
@@ -13851,7 +13850,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>41091</v>
       </c>
@@ -13875,7 +13874,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>330</v>
@@ -13895,7 +13894,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41122</v>
       </c>
@@ -13919,7 +13918,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>49</v>
@@ -13939,7 +13938,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>286</v>
@@ -13959,7 +13958,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>57</v>
@@ -13979,7 +13978,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41153</v>
       </c>
@@ -14003,7 +14002,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41183</v>
       </c>
@@ -14027,7 +14026,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>332</v>
@@ -14047,7 +14046,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41214</v>
       </c>
@@ -14071,7 +14070,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41244</v>
       </c>
@@ -14095,7 +14094,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>334</v>
@@ -14115,7 +14114,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="47" t="s">
         <v>222</v>
       </c>
@@ -14137,7 +14136,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>41275</v>
       </c>
@@ -14161,7 +14160,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>41306</v>
       </c>
@@ -14187,7 +14186,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>41334</v>
       </c>
@@ -14209,7 +14208,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>41365</v>
       </c>
@@ -14235,7 +14234,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41395</v>
       </c>
@@ -14259,7 +14258,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>41426</v>
       </c>
@@ -14285,7 +14284,7 @@
         <v>41439</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>56</v>
@@ -14307,7 +14306,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>338</v>
@@ -14327,7 +14326,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -14351,7 +14350,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>41487</v>
       </c>
@@ -14375,7 +14374,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41518</v>
       </c>
@@ -14399,7 +14398,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>41548</v>
       </c>
@@ -14423,7 +14422,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>41579</v>
       </c>
@@ -14449,7 +14448,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>343</v>
@@ -14469,7 +14468,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>41609</v>
       </c>
@@ -14493,7 +14492,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="47" t="s">
         <v>221</v>
       </c>
@@ -14515,7 +14514,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>41640</v>
       </c>
@@ -14539,7 +14538,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>41671</v>
       </c>
@@ -14565,7 +14564,7 @@
         <v>41694</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>186</v>
@@ -14585,7 +14584,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>356</v>
@@ -14605,7 +14604,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>41699</v>
       </c>
@@ -14629,7 +14628,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>41730</v>
       </c>
@@ -14655,7 +14654,7 @@
         <v>41757</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>186</v>
@@ -14675,7 +14674,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>358</v>
@@ -14693,7 +14692,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>41760</v>
       </c>
@@ -14719,7 +14718,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>359</v>
@@ -14739,7 +14738,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>41791</v>
       </c>
@@ -14763,7 +14762,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>41821</v>
       </c>
@@ -14789,7 +14788,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>56</v>
@@ -14809,7 +14808,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>361</v>
@@ -14829,7 +14828,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>41852</v>
       </c>
@@ -14853,7 +14852,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>41883</v>
       </c>
@@ -14879,7 +14878,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>363</v>
@@ -14899,7 +14898,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41913</v>
       </c>
@@ -14923,7 +14922,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>41944</v>
       </c>
@@ -14949,7 +14948,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>369</v>
@@ -14969,7 +14968,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>41974</v>
       </c>
@@ -14991,7 +14990,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>370</v>
@@ -15011,7 +15010,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="47" t="s">
         <v>354</v>
       </c>
@@ -15033,7 +15032,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>42005</v>
       </c>
@@ -15057,7 +15056,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>42036</v>
       </c>
@@ -15083,7 +15082,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>372</v>
@@ -15103,7 +15102,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>42064</v>
       </c>
@@ -15127,7 +15126,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>56</v>
@@ -15149,7 +15148,7 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>373</v>
@@ -15169,7 +15168,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>252</v>
@@ -15189,7 +15188,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>42095</v>
       </c>
@@ -15219,7 +15218,7 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>374</v>
@@ -15239,7 +15238,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>42125</v>
       </c>
@@ -15265,7 +15264,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>375</v>
@@ -15285,7 +15284,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42156</v>
       </c>
@@ -15311,7 +15310,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>376</v>
@@ -15331,7 +15330,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>42186</v>
       </c>
@@ -15355,7 +15354,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>42217</v>
       </c>
@@ -15381,7 +15380,7 @@
         <v>42244</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>56</v>
@@ -15403,7 +15402,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>381</v>
@@ -15423,7 +15422,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>42248</v>
       </c>
@@ -15447,7 +15446,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>42278</v>
       </c>
@@ -15473,7 +15472,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>383</v>
@@ -15493,7 +15492,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42309</v>
       </c>
@@ -15519,7 +15518,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>384</v>
@@ -15539,7 +15538,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42339</v>
       </c>
@@ -15565,7 +15564,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>385</v>
@@ -15585,7 +15584,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="47" t="s">
         <v>353</v>
       </c>
@@ -15607,7 +15606,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>42370</v>
       </c>
@@ -15627,7 +15626,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>42401</v>
       </c>
@@ -15647,7 +15646,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>42430</v>
       </c>
@@ -15671,7 +15670,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>56</v>
@@ -15693,7 +15692,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>42461</v>
       </c>
@@ -15713,7 +15712,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>42491</v>
       </c>
@@ -15733,7 +15732,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>42522</v>
       </c>
@@ -15753,7 +15752,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42552</v>
       </c>
@@ -15773,7 +15772,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>42583</v>
       </c>
@@ -15799,7 +15798,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>56</v>
@@ -15821,7 +15820,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>42614</v>
       </c>
@@ -15847,7 +15846,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42644</v>
       </c>
@@ -15867,7 +15866,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>42675</v>
       </c>
@@ -15891,7 +15890,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>42705</v>
       </c>
@@ -15915,7 +15914,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>269</v>
@@ -15935,7 +15934,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="47" t="s">
         <v>352</v>
       </c>
@@ -15957,7 +15956,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>42736</v>
       </c>
@@ -15983,7 +15982,7 @@
         <v>42708</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>56</v>
@@ -16005,7 +16004,7 @@
         <v>42761</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>388</v>
@@ -16027,7 +16026,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>42767</v>
       </c>
@@ -16053,7 +16052,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>389</v>
@@ -16073,7 +16072,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>42795</v>
       </c>
@@ -16097,7 +16096,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>42826</v>
       </c>
@@ -16123,7 +16122,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42856</v>
       </c>
@@ -16149,7 +16148,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>186</v>
@@ -16169,7 +16168,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>392</v>
@@ -16189,7 +16188,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>42887</v>
       </c>
@@ -16213,7 +16212,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42917</v>
       </c>
@@ -16237,7 +16236,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>42948</v>
       </c>
@@ -16261,7 +16260,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42979</v>
       </c>
@@ -16281,7 +16280,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>43009</v>
       </c>
@@ -16307,7 +16306,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>399</v>
@@ -16329,7 +16328,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>43040</v>
       </c>
@@ -16355,7 +16354,7 @@
         <v>43085</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>43070</v>
       </c>
@@ -16381,7 +16380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="47" t="s">
         <v>351</v>
       </c>
@@ -16403,7 +16402,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>43101</v>
       </c>
@@ -16427,7 +16426,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>43132</v>
       </c>
@@ -16447,7 +16446,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>43160</v>
       </c>
@@ -16467,7 +16466,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>43191</v>
       </c>
@@ -16487,7 +16486,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43221</v>
       </c>
@@ -16511,7 +16510,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>43252</v>
       </c>
@@ -16537,7 +16536,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>403</v>
@@ -16557,7 +16556,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>43282</v>
       </c>
@@ -16577,7 +16576,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>43313</v>
       </c>
@@ -16601,7 +16600,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>43344</v>
       </c>
@@ -16625,7 +16624,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>43374</v>
       </c>
@@ -16651,7 +16650,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>186</v>
@@ -16671,7 +16670,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>406</v>
@@ -16691,7 +16690,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>43405</v>
       </c>
@@ -16715,7 +16714,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>43435</v>
       </c>
@@ -16741,7 +16740,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>407</v>
@@ -16761,7 +16760,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="47" t="s">
         <v>350</v>
       </c>
@@ -16783,7 +16782,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>43466</v>
       </c>
@@ -16803,7 +16802,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>43497</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>43525</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>43556</v>
       </c>
@@ -16879,7 +16878,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>56</v>
@@ -16901,7 +16900,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>43586</v>
       </c>
@@ -16927,7 +16926,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>43617</v>
       </c>
@@ -16947,7 +16946,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>43647</v>
       </c>
@@ -16967,7 +16966,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>43678</v>
       </c>
@@ -16987,7 +16986,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>43709</v>
       </c>
@@ -17013,7 +17012,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>56</v>
@@ -17035,7 +17034,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43739</v>
       </c>
@@ -17061,7 +17060,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>186</v>
@@ -17081,7 +17080,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>56</v>
@@ -17103,7 +17102,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>43770</v>
       </c>
@@ -17123,7 +17122,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43800</v>
       </c>
@@ -17147,7 +17146,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="47" t="s">
         <v>349</v>
       </c>
@@ -17169,7 +17168,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>43831</v>
       </c>
@@ -17193,7 +17192,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43862</v>
       </c>
@@ -17213,7 +17212,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43891</v>
       </c>
@@ -17233,7 +17232,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>43922</v>
       </c>
@@ -17253,7 +17252,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>43952</v>
       </c>
@@ -17273,7 +17272,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>43983</v>
       </c>
@@ -17293,7 +17292,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44013</v>
       </c>
@@ -17319,7 +17318,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44044</v>
       </c>
@@ -17339,7 +17338,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>44075</v>
       </c>
@@ -17359,7 +17358,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>44105</v>
       </c>
@@ -17385,7 +17384,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>44136</v>
       </c>
@@ -17405,7 +17404,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44166</v>
       </c>
@@ -17425,7 +17424,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="47" t="s">
         <v>348</v>
       </c>
@@ -17447,7 +17446,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>44197</v>
       </c>
@@ -17467,7 +17466,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>44228</v>
       </c>
@@ -17493,7 +17492,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>44256</v>
       </c>
@@ -17513,7 +17512,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>44287</v>
       </c>
@@ -17533,7 +17532,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>44317</v>
       </c>
@@ -17553,7 +17552,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>44348</v>
       </c>
@@ -17579,7 +17578,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>49</v>
@@ -17601,7 +17600,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>47</v>
@@ -17623,7 +17622,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>413</v>
@@ -17645,7 +17644,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>44378</v>
       </c>
@@ -17671,7 +17670,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>44409</v>
       </c>
@@ -17695,7 +17694,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>44440</v>
       </c>
@@ -17715,7 +17714,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>44470</v>
       </c>
@@ -17735,7 +17734,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44501</v>
       </c>
@@ -17755,7 +17754,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>44531</v>
       </c>
@@ -17781,7 +17780,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>56</v>
@@ -17801,7 +17800,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="47" t="s">
         <v>347</v>
       </c>
@@ -17823,7 +17822,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>44562</v>
       </c>
@@ -17849,7 +17848,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>44593</v>
       </c>
@@ -17875,7 +17874,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>186</v>
@@ -17895,7 +17894,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44621</v>
       </c>
@@ -17915,7 +17914,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>44652</v>
       </c>
@@ -17935,7 +17934,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44682</v>
       </c>
@@ -17961,7 +17960,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>44713</v>
       </c>
@@ -17981,7 +17980,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>44743</v>
       </c>
@@ -18001,7 +18000,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>44774</v>
       </c>
@@ -18027,7 +18026,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>44805</v>
       </c>
@@ -18051,7 +18050,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>56</v>
@@ -18073,7 +18072,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>44835</v>
       </c>
@@ -18097,7 +18096,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>56</v>
@@ -18119,7 +18118,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>44866</v>
       </c>
@@ -18145,7 +18144,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44896</v>
       </c>
@@ -18165,7 +18164,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>186</v>
@@ -18185,7 +18184,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>63</v>
@@ -18207,7 +18206,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="47" t="s">
         <v>417</v>
       </c>
@@ -18225,7 +18224,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44927</v>
       </c>
@@ -18245,7 +18244,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>44958</v>
       </c>
@@ -18271,7 +18270,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>56</v>
@@ -18293,7 +18292,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>283</v>
@@ -18313,7 +18312,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>56</v>
@@ -18335,29 +18334,33 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>44986</v>
       </c>
       <c r="B631" s="20"/>
-      <c r="C631" s="13"/>
+      <c r="C631" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G631" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>45017</v>
       </c>
-      <c r="B632" s="20"/>
+      <c r="B632" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C632" s="13"/>
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
@@ -18366,12 +18369,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H632" s="39"/>
+      <c r="H632" s="39">
+        <v>1</v>
+      </c>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
-    </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K632" s="48">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>45047</v>
       </c>
@@ -18389,7 +18396,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>45078</v>
       </c>
@@ -18407,7 +18414,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>45108</v>
       </c>
@@ -18425,7 +18432,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>45139</v>
       </c>
@@ -18443,7 +18450,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>45170</v>
       </c>
@@ -18461,7 +18468,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>45200</v>
       </c>
@@ -18479,7 +18486,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>45231</v>
       </c>
@@ -18497,7 +18504,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>45261</v>
       </c>
@@ -18515,7 +18522,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>45292</v>
       </c>
@@ -18533,7 +18540,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>45323</v>
       </c>
@@ -18551,7 +18558,7 @@
       <c r="J642" s="12"/>
       <c r="K642" s="15"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>45352</v>
       </c>
@@ -18569,7 +18576,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>45383</v>
       </c>
@@ -18587,7 +18594,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>45413</v>
       </c>
@@ -18605,7 +18612,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>45444</v>
       </c>
@@ -18623,7 +18630,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>45474</v>
       </c>
@@ -18641,7 +18648,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>45505</v>
       </c>
@@ -18659,7 +18666,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>45536</v>
       </c>
@@ -18677,7 +18684,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>45566</v>
       </c>
@@ -18695,7 +18702,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>45597</v>
       </c>
@@ -18713,7 +18720,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>45627</v>
       </c>
@@ -18731,7 +18738,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>45658</v>
       </c>
@@ -18749,7 +18756,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>45689</v>
       </c>
@@ -18767,7 +18774,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>45717</v>
       </c>
@@ -18785,7 +18792,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>45748</v>
       </c>
@@ -18803,7 +18810,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>45778</v>
       </c>
@@ -18821,7 +18828,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>45809</v>
       </c>
@@ -18839,7 +18846,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>45839</v>
       </c>
@@ -18857,7 +18864,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>45870</v>
       </c>
@@ -18875,7 +18882,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>45901</v>
       </c>
@@ -18893,7 +18900,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>45931</v>
       </c>
@@ -18911,7 +18918,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>45962</v>
       </c>
@@ -18929,7 +18936,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>45992</v>
       </c>
@@ -18947,7 +18954,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>46023</v>
       </c>
@@ -18965,7 +18972,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>46054</v>
       </c>
@@ -18983,7 +18990,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>46082</v>
       </c>
@@ -19001,7 +19008,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>46113</v>
       </c>
@@ -19019,7 +19026,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>46143</v>
       </c>
@@ -19037,7 +19044,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>46174</v>
       </c>
@@ -19055,7 +19062,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>46204</v>
       </c>
@@ -19073,7 +19080,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>46235</v>
       </c>
@@ -19091,7 +19098,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>46266</v>
       </c>
@@ -19109,7 +19116,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>46296</v>
       </c>
@@ -19127,7 +19134,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>46327</v>
       </c>
@@ -19145,7 +19152,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>46357</v>
       </c>
@@ -19163,7 +19170,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>46388</v>
       </c>
@@ -19181,7 +19188,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>46419</v>
       </c>
@@ -19199,7 +19206,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>46447</v>
       </c>
@@ -19217,7 +19224,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>46478</v>
       </c>
@@ -19235,7 +19242,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>46508</v>
       </c>
@@ -19253,7 +19260,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>46539</v>
       </c>
@@ -19271,7 +19278,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>46569</v>
       </c>
@@ -19289,7 +19296,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>46600</v>
       </c>
@@ -19307,7 +19314,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>46631</v>
       </c>
@@ -19325,7 +19332,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>46661</v>
       </c>
@@ -19343,7 +19350,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>46692</v>
       </c>
@@ -19361,7 +19368,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>46722</v>
       </c>
@@ -19379,7 +19386,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>46753</v>
       </c>
@@ -19397,7 +19404,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>46784</v>
       </c>
@@ -19415,7 +19422,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>46813</v>
       </c>
@@ -19433,7 +19440,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>46844</v>
       </c>
@@ -19451,7 +19458,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>46874</v>
       </c>
@@ -19469,7 +19476,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>46905</v>
       </c>
@@ -19487,7 +19494,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <v>46935</v>
       </c>
@@ -19505,7 +19512,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>46966</v>
       </c>
@@ -19523,7 +19530,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>46997</v>
       </c>
@@ -19541,7 +19548,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>47027</v>
       </c>
@@ -19574,10 +19581,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19600,7 +19607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19608,21 +19615,21 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -19635,7 +19642,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19664,7 +19671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>9.875</v>
       </c>
@@ -19694,17 +19701,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19725,7 +19732,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19752,7 +19759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19778,7 +19785,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19804,7 +19811,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19830,7 +19837,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19856,7 +19863,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19882,7 +19889,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19908,7 +19915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19934,7 +19941,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19954,7 +19961,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19974,7 +19981,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19994,7 +20001,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20015,7 +20022,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20036,7 +20043,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20057,7 +20064,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20078,7 +20085,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20099,7 +20106,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20120,7 +20127,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20141,7 +20148,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20162,7 +20169,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20183,7 +20190,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20204,7 +20211,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20225,7 +20232,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20246,7 +20253,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20267,7 +20274,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20288,7 +20295,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20309,7 +20316,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20330,7 +20337,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20351,7 +20358,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20372,7 +20379,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20393,7 +20400,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20414,7 +20421,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20423,7 +20430,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20432,7 +20439,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20441,7 +20448,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20450,7 +20457,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20459,7 +20466,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20468,7 +20475,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20477,7 +20484,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20486,7 +20493,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20495,7 +20502,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20504,7 +20511,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20513,7 +20520,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20522,7 +20529,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20531,7 +20538,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20540,7 +20547,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20549,7 +20556,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20558,7 +20565,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20567,7 +20574,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20576,7 +20583,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20585,7 +20592,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20594,7 +20601,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20603,7 +20610,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20612,7 +20619,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20621,7 +20628,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20630,7 +20637,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20639,7 +20646,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20648,7 +20655,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20657,7 +20664,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20666,7 +20673,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20675,7 +20682,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/AMBION DORINDA.xlsx
+++ b/REGULAR/OJT/AMBION DORINDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349C97D1-B943-4567-BD35-9FCD32F7D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1321,12 +1322,15 @@
   </si>
   <si>
     <t>8/23,25,26/2022</t>
+  </si>
+  <si>
+    <t>4/18,19/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2183,7 +2187,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2230,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2294,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2354,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2420,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2483,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2581,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2640,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2705,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2748,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2823,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +3009,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,7 +3075,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3133,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3195,7 +3199,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,7 +3255,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3330,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3373,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3439,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3491,7 +3495,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3589,7 +3593,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,7 +3656,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,25 +3722,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K698" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K699" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3748,13 +3752,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3763,14 +3767,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4074,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4084,7 +4088,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4092,34 +4096,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K698"/>
+  <dimension ref="A2:K699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A619" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A619" activePane="bottomLeft"/>
       <selection activeCell="F15" sqref="F15"/>
-      <selection pane="bottomLeft" activeCell="D619" sqref="D619"/>
+      <selection pane="bottomLeft" activeCell="K634" sqref="K634"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4140,7 +4144,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4160,7 +4164,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4182,7 +4186,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4190,7 +4194,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4203,7 +4207,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -4220,7 +4224,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4255,7 +4259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4274,12 +4278,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>145.125</v>
+        <v>143.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4301,7 +4305,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>33970</v>
       </c>
@@ -4319,7 +4323,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34001</v>
       </c>
@@ -4337,7 +4341,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>34029</v>
       </c>
@@ -4355,7 +4359,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>34060</v>
       </c>
@@ -4375,7 +4379,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>34090</v>
       </c>
@@ -4395,7 +4399,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>34121</v>
       </c>
@@ -4415,7 +4419,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>34151</v>
       </c>
@@ -4435,7 +4439,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>34182</v>
       </c>
@@ -4455,7 +4459,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>34213</v>
       </c>
@@ -4475,7 +4479,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>34243</v>
       </c>
@@ -4495,7 +4499,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>34274</v>
       </c>
@@ -4515,7 +4519,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>34304</v>
       </c>
@@ -4535,7 +4539,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>45</v>
       </c>
@@ -4557,7 +4561,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>34335</v>
       </c>
@@ -4577,7 +4581,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>34366</v>
       </c>
@@ -4597,7 +4601,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>34394</v>
       </c>
@@ -4617,7 +4621,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>34425</v>
       </c>
@@ -4639,7 +4643,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>34455</v>
       </c>
@@ -4663,7 +4667,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>34486</v>
       </c>
@@ -4683,7 +4687,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>34516</v>
       </c>
@@ -4703,7 +4707,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>34547</v>
       </c>
@@ -4723,7 +4727,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>34578</v>
       </c>
@@ -4743,7 +4747,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>34608</v>
       </c>
@@ -4763,7 +4767,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>34639</v>
       </c>
@@ -4783,7 +4787,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>34669</v>
       </c>
@@ -4809,7 +4813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>44</v>
       </c>
@@ -4831,7 +4835,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>34700</v>
       </c>
@@ -4857,7 +4861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>34731</v>
       </c>
@@ -4877,7 +4881,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>34759</v>
       </c>
@@ -4897,7 +4901,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>34790</v>
       </c>
@@ -4917,7 +4921,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>34820</v>
       </c>
@@ -4943,7 +4947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>34851</v>
       </c>
@@ -4969,7 +4973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>34881</v>
       </c>
@@ -4989,7 +4993,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>34912</v>
       </c>
@@ -5009,7 +5013,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>34943</v>
       </c>
@@ -5029,7 +5033,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>34973</v>
       </c>
@@ -5049,7 +5053,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>35004</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>35034</v>
       </c>
@@ -5099,7 +5103,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>54</v>
       </c>
@@ -5121,7 +5125,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>35065</v>
       </c>
@@ -5141,7 +5145,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>35096</v>
       </c>
@@ -5161,7 +5165,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>35125</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>35156</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>35186</v>
       </c>
@@ -5237,7 +5241,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>35217</v>
       </c>
@@ -5257,7 +5261,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>35247</v>
       </c>
@@ -5277,7 +5281,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>35278</v>
       </c>
@@ -5303,7 +5307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>35309</v>
       </c>
@@ -5323,7 +5327,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>35339</v>
       </c>
@@ -5343,7 +5347,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>35370</v>
       </c>
@@ -5363,7 +5367,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>35400</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>53</v>
       </c>
@@ -5411,7 +5415,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>35431</v>
       </c>
@@ -5437,7 +5441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>35462</v>
       </c>
@@ -5463,7 +5467,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>35490</v>
       </c>
@@ -5483,7 +5487,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>35521</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>35551</v>
       </c>
@@ -5529,7 +5533,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>35582</v>
       </c>
@@ -5549,7 +5553,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>35612</v>
       </c>
@@ -5575,7 +5579,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>56</v>
@@ -5597,7 +5601,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>35643</v>
       </c>
@@ -5617,7 +5621,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>35674</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>35683</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>35704</v>
       </c>
@@ -5667,7 +5671,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>35735</v>
       </c>
@@ -5691,7 +5695,7 @@
         <v>35745</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>35765</v>
       </c>
@@ -5715,7 +5719,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="47" t="s">
         <v>52</v>
       </c>
@@ -5737,7 +5741,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>35796</v>
       </c>
@@ -5761,7 +5765,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>35827</v>
       </c>
@@ -5781,7 +5785,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>35855</v>
       </c>
@@ -5803,7 +5807,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>35886</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>35916</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>35947</v>
       </c>
@@ -5875,7 +5879,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>35977</v>
       </c>
@@ -5899,7 +5903,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>36008</v>
       </c>
@@ -5925,7 +5929,7 @@
         <v>36028</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>80</v>
@@ -5945,7 +5949,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>36039</v>
       </c>
@@ -5971,7 +5975,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>82</v>
@@ -5991,7 +5995,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>36069</v>
       </c>
@@ -6015,7 +6019,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>36100</v>
       </c>
@@ -6039,7 +6043,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>36130</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>86</v>
@@ -6085,7 +6089,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>46</v>
@@ -6105,7 +6109,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="47" t="s">
         <v>51</v>
       </c>
@@ -6127,7 +6131,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>36161</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>36178</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>93</v>
@@ -6173,7 +6177,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>36192</v>
       </c>
@@ -6199,7 +6203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -6221,7 +6225,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>94</v>
@@ -6243,7 +6247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>93</v>
@@ -6263,7 +6267,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>36220</v>
       </c>
@@ -6289,7 +6293,7 @@
         <v>36229</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>95</v>
@@ -6309,7 +6313,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>36251</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>36262</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>99</v>
@@ -6355,7 +6359,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>36281</v>
       </c>
@@ -6379,7 +6383,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>36312</v>
       </c>
@@ -6403,7 +6407,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>36342</v>
       </c>
@@ -6427,7 +6431,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>36373</v>
       </c>
@@ -6451,7 +6455,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>36404</v>
       </c>
@@ -6475,7 +6479,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>36434</v>
       </c>
@@ -6499,7 +6503,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>36465</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>106</v>
@@ -6545,7 +6549,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>36495</v>
       </c>
@@ -6569,7 +6573,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="47" t="s">
         <v>91</v>
       </c>
@@ -6591,7 +6595,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>36526</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>109</v>
@@ -6637,7 +6641,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>36557</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>110</v>
@@ -6683,7 +6687,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>36586</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>36602</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>111</v>
@@ -6729,7 +6733,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>36617</v>
       </c>
@@ -6755,7 +6759,7 @@
         <v>36626</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>112</v>
@@ -6775,7 +6779,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>36647</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>36670</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>56</v>
@@ -6823,7 +6827,7 @@
         <v>36671</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>56</v>
@@ -6845,7 +6849,7 @@
         <v>36704</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>99</v>
@@ -6865,7 +6869,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>36678</v>
       </c>
@@ -6889,7 +6893,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>36708</v>
       </c>
@@ -6915,7 +6919,7 @@
         <v>36713</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>115</v>
@@ -6935,7 +6939,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>36739</v>
       </c>
@@ -6959,7 +6963,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>36770</v>
       </c>
@@ -6983,7 +6987,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>36800</v>
       </c>
@@ -7007,7 +7011,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>36831</v>
       </c>
@@ -7033,7 +7037,7 @@
         <v>36844</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>119</v>
@@ -7055,7 +7059,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>36861</v>
       </c>
@@ -7079,7 +7083,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>120</v>
@@ -7101,7 +7105,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="47" t="s">
         <v>90</v>
       </c>
@@ -7123,7 +7127,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>36892</v>
       </c>
@@ -7147,7 +7151,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>36923</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>125</v>
@@ -7193,7 +7197,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>36951</v>
       </c>
@@ -7217,7 +7221,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>36982</v>
       </c>
@@ -7241,7 +7245,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>37012</v>
       </c>
@@ -7267,7 +7271,7 @@
         <v>37040</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>128</v>
@@ -7287,7 +7291,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>37043</v>
       </c>
@@ -7311,7 +7315,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>37073</v>
       </c>
@@ -7337,7 +7341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>134</v>
@@ -7357,7 +7361,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>37104</v>
       </c>
@@ -7381,7 +7385,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>37135</v>
       </c>
@@ -7401,7 +7405,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>37165</v>
       </c>
@@ -7427,7 +7431,7 @@
         <v>37186</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>131</v>
@@ -7447,7 +7451,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>37196</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>56</v>
@@ -7495,7 +7499,7 @@
         <v>37210</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>47</v>
@@ -7517,7 +7521,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>132</v>
@@ -7537,7 +7541,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>37226</v>
       </c>
@@ -7561,7 +7565,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="47" t="s">
         <v>89</v>
       </c>
@@ -7583,7 +7587,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>37257</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>138</v>
@@ -7631,7 +7635,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>37288</v>
       </c>
@@ -7657,7 +7661,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>49</v>
@@ -7679,7 +7683,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>56</v>
@@ -7701,7 +7705,7 @@
         <v>37316</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>55</v>
@@ -7723,7 +7727,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>139</v>
@@ -7745,7 +7749,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>37316</v>
       </c>
@@ -7769,7 +7773,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>37347</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>37348</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>141</v>
@@ -7815,7 +7819,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>37377</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>56</v>
@@ -7863,7 +7867,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>37408</v>
       </c>
@@ -7885,7 +7889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>37438</v>
       </c>
@@ -7905,7 +7909,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>37469</v>
       </c>
@@ -7931,7 +7935,7 @@
         <v>37483</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>56</v>
@@ -7953,7 +7957,7 @@
         <v>37489</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>142</v>
@@ -7973,7 +7977,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>37500</v>
       </c>
@@ -7993,7 +7997,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>37530</v>
       </c>
@@ -8019,7 +8023,7 @@
         <v>37552</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>80</v>
@@ -8039,7 +8043,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>37561</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>114</v>
@@ -8087,7 +8091,7 @@
         <v>37574</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>63</v>
@@ -8109,7 +8113,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>150</v>
@@ -8129,7 +8133,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>37591</v>
       </c>
@@ -8155,7 +8159,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>149</v>
@@ -8175,7 +8179,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="47" t="s">
         <v>92</v>
       </c>
@@ -8197,7 +8201,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>37622</v>
       </c>
@@ -8223,7 +8227,7 @@
         <v>37642</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>63</v>
@@ -8245,7 +8249,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>157</v>
@@ -8265,7 +8269,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>37653</v>
       </c>
@@ -8289,7 +8293,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>37681</v>
       </c>
@@ -8315,7 +8319,7 @@
         <v>37691</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>159</v>
@@ -8337,7 +8341,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>37712</v>
       </c>
@@ -8361,7 +8365,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>37742</v>
       </c>
@@ -8387,7 +8391,7 @@
         <v>37749</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>163</v>
@@ -8409,7 +8413,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>37773</v>
       </c>
@@ -8433,7 +8437,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>37803</v>
       </c>
@@ -8459,7 +8463,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>165</v>
@@ -8479,7 +8483,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>37834</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>166</v>
@@ -8525,7 +8529,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>37865</v>
       </c>
@@ -8551,7 +8555,7 @@
         <v>37883</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>167</v>
@@ -8571,7 +8575,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>37895</v>
       </c>
@@ -8597,7 +8601,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>56</v>
@@ -8619,7 +8623,7 @@
         <v>37914</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>170</v>
@@ -8639,7 +8643,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>37926</v>
       </c>
@@ -8665,7 +8669,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>169</v>
@@ -8685,7 +8689,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>37956</v>
       </c>
@@ -8709,7 +8713,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="47" t="s">
         <v>156</v>
       </c>
@@ -8731,7 +8735,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>37987</v>
       </c>
@@ -8757,7 +8761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>38018</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>38050</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>177</v>
@@ -8803,7 +8807,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>38047</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>38049</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>179</v>
@@ -8849,7 +8853,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="48"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>38078</v>
       </c>
@@ -8873,7 +8877,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>56</v>
@@ -8893,7 +8897,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>49</v>
@@ -8913,7 +8917,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>180</v>
@@ -8933,7 +8937,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>38108</v>
       </c>
@@ -8957,7 +8961,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>181</v>
@@ -8977,7 +8981,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>38139</v>
       </c>
@@ -9005,7 +9009,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>75</v>
@@ -9025,7 +9029,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>38169</v>
       </c>
@@ -9049,7 +9053,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>49</v>
@@ -9069,7 +9073,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>133</v>
@@ -9089,7 +9093,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>38200</v>
       </c>
@@ -9113,7 +9117,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>76</v>
@@ -9133,7 +9137,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>38231</v>
       </c>
@@ -9157,7 +9161,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>56</v>
@@ -9177,7 +9181,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>159</v>
@@ -9197,7 +9201,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>38261</v>
       </c>
@@ -9223,7 +9227,7 @@
         <v>38274</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>114</v>
@@ -9245,7 +9249,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>182</v>
@@ -9265,7 +9269,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>38292</v>
       </c>
@@ -9291,7 +9295,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>56</v>
@@ -9313,7 +9317,7 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>183</v>
@@ -9333,7 +9337,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>38322</v>
       </c>
@@ -9357,7 +9361,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="47" t="s">
         <v>155</v>
       </c>
@@ -9379,7 +9383,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>38353</v>
       </c>
@@ -9403,7 +9407,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>187</v>
@@ -9425,7 +9429,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>38384</v>
       </c>
@@ -9449,7 +9453,7 @@
         <v>38440</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>188</v>
@@ -9471,7 +9475,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>38412</v>
       </c>
@@ -9495,7 +9499,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>186</v>
@@ -9513,7 +9517,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>189</v>
@@ -9533,7 +9537,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>38443</v>
       </c>
@@ -9559,7 +9563,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>56</v>
@@ -9581,7 +9585,7 @@
         <v>38465</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>56</v>
@@ -9603,7 +9607,7 @@
         <v>38471</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>190</v>
@@ -9623,7 +9627,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>38473</v>
       </c>
@@ -9649,7 +9653,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>81</v>
@@ -9671,7 +9675,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>192</v>
@@ -9691,7 +9695,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>38504</v>
       </c>
@@ -9717,7 +9721,7 @@
         <v>38517</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>114</v>
@@ -9739,7 +9743,7 @@
         <v>38524</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>109</v>
@@ -9759,7 +9763,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>38534</v>
       </c>
@@ -9783,7 +9787,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>38565</v>
       </c>
@@ -9809,7 +9813,7 @@
         <v>38580</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>170</v>
@@ -9831,7 +9835,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>38596</v>
       </c>
@@ -9855,7 +9859,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>38626</v>
       </c>
@@ -9879,7 +9883,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>38657</v>
       </c>
@@ -9905,7 +9909,7 @@
         <v>38670</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>200</v>
@@ -9925,7 +9929,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>38687</v>
       </c>
@@ -9951,7 +9955,7 @@
         <v>38699</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>201</v>
@@ -9971,7 +9975,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="47" t="s">
         <v>154</v>
       </c>
@@ -9993,7 +9997,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>38718</v>
       </c>
@@ -10017,7 +10021,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>202</v>
@@ -10037,7 +10041,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>38749</v>
       </c>
@@ -10061,7 +10065,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>38777</v>
       </c>
@@ -10085,7 +10089,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>38808</v>
       </c>
@@ -10111,7 +10115,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>49</v>
@@ -10133,7 +10137,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>204</v>
@@ -10153,7 +10157,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>38838</v>
       </c>
@@ -10177,7 +10181,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>38869</v>
       </c>
@@ -10203,7 +10207,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>56</v>
@@ -10225,7 +10229,7 @@
         <v>38895</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>158</v>
@@ -10245,7 +10249,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>38899</v>
       </c>
@@ -10271,7 +10275,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>56</v>
@@ -10293,7 +10297,7 @@
         <v>38904</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>56</v>
@@ -10315,7 +10319,7 @@
         <v>38910</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>81</v>
@@ -10337,7 +10341,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>81</v>
@@ -10359,7 +10363,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>56</v>
@@ -10381,7 +10385,7 @@
         <v>38929</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>206</v>
@@ -10401,7 +10405,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>38930</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>56</v>
@@ -10449,7 +10453,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>49</v>
@@ -10471,7 +10475,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>56</v>
@@ -10493,7 +10497,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>56</v>
@@ -10515,7 +10519,7 @@
         <v>38960</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>207</v>
@@ -10537,7 +10541,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>38961</v>
       </c>
@@ -10561,7 +10565,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>38991</v>
       </c>
@@ -10587,7 +10591,7 @@
         <v>39008</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>120</v>
@@ -10609,7 +10613,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>120</v>
@@ -10631,7 +10635,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>215</v>
@@ -10651,7 +10655,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>39022</v>
       </c>
@@ -10675,7 +10679,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>39052</v>
       </c>
@@ -10701,7 +10705,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>217</v>
@@ -10723,7 +10727,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>218</v>
@@ -10743,7 +10747,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="47" t="s">
         <v>153</v>
       </c>
@@ -10765,7 +10769,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>39083</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>229</v>
@@ -10811,7 +10815,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>39114</v>
       </c>
@@ -10837,7 +10841,7 @@
         <v>39133</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>230</v>
@@ -10857,7 +10861,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>39142</v>
       </c>
@@ -10881,7 +10885,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>39173</v>
       </c>
@@ -10907,7 +10911,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>186</v>
@@ -10927,7 +10931,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>232</v>
@@ -10947,7 +10951,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>39203</v>
       </c>
@@ -10971,7 +10975,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>39234</v>
       </c>
@@ -10995,7 +10999,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>39264</v>
       </c>
@@ -11021,7 +11025,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>236</v>
@@ -11041,7 +11045,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>39295</v>
       </c>
@@ -11067,7 +11071,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>237</v>
@@ -11087,7 +11091,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>39326</v>
       </c>
@@ -11113,7 +11117,7 @@
         <v>39336</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>56</v>
@@ -11133,7 +11137,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>238</v>
@@ -11153,7 +11157,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>39356</v>
       </c>
@@ -11177,7 +11181,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>39387</v>
       </c>
@@ -11201,7 +11205,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>228</v>
@@ -11223,7 +11227,7 @@
         <v>39423</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>240</v>
@@ -11245,7 +11249,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>39417</v>
       </c>
@@ -11269,7 +11273,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="47" t="s">
         <v>227</v>
       </c>
@@ -11291,7 +11295,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>39448</v>
       </c>
@@ -11317,7 +11321,7 @@
         <v>39475</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>245</v>
@@ -11337,7 +11341,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>39479</v>
       </c>
@@ -11361,7 +11365,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>39508</v>
       </c>
@@ -11385,7 +11389,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>186</v>
@@ -11405,7 +11409,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>81</v>
@@ -11427,7 +11431,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>247</v>
@@ -11447,7 +11451,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>39539</v>
       </c>
@@ -11473,7 +11477,7 @@
         <v>39541</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>250</v>
@@ -11493,7 +11497,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>39569</v>
       </c>
@@ -11519,7 +11523,7 @@
         <v>39570</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>186</v>
@@ -11539,7 +11543,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>56</v>
@@ -11561,7 +11565,7 @@
         <v>39597</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>251</v>
@@ -11581,7 +11585,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>39600</v>
       </c>
@@ -11609,7 +11613,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>39630</v>
       </c>
@@ -11633,7 +11637,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>253</v>
@@ -11653,7 +11657,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>39661</v>
       </c>
@@ -11679,7 +11683,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>39692</v>
       </c>
@@ -11705,7 +11709,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>56</v>
@@ -11727,7 +11731,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>255</v>
@@ -11747,7 +11751,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>39722</v>
       </c>
@@ -11773,7 +11777,7 @@
         <v>39745</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>56</v>
@@ -11795,7 +11799,7 @@
         <v>39748</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>256</v>
@@ -11815,7 +11819,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>39753</v>
       </c>
@@ -11841,7 +11845,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>56</v>
@@ -11863,7 +11867,7 @@
         <v>39771</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>56</v>
@@ -11885,7 +11889,7 @@
         <v>39778</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>257</v>
@@ -11905,7 +11909,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>39783</v>
       </c>
@@ -11929,7 +11933,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="47" t="s">
         <v>226</v>
       </c>
@@ -11951,7 +11955,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>39814</v>
       </c>
@@ -11977,7 +11981,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>263</v>
@@ -11997,7 +12001,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>39845</v>
       </c>
@@ -12021,7 +12025,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>39873</v>
       </c>
@@ -12043,7 +12047,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>265</v>
@@ -12063,7 +12067,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>39904</v>
       </c>
@@ -12089,7 +12093,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>39934</v>
       </c>
@@ -12115,7 +12119,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>186</v>
@@ -12135,7 +12139,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>56</v>
@@ -12157,7 +12161,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>267</v>
@@ -12177,7 +12181,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>39965</v>
       </c>
@@ -12201,7 +12205,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>39995</v>
       </c>
@@ -12227,7 +12231,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>269</v>
@@ -12247,7 +12251,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>40026</v>
       </c>
@@ -12271,7 +12275,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>40057</v>
       </c>
@@ -12297,7 +12301,7 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>56</v>
@@ -12319,7 +12323,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>271</v>
@@ -12341,7 +12345,7 @@
         <v>40072</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>40087</v>
       </c>
@@ -12367,7 +12371,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>40118</v>
       </c>
@@ -12393,7 +12397,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40148</v>
       </c>
@@ -12419,7 +12423,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>278</v>
@@ -12439,7 +12443,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="47" t="s">
         <v>225</v>
       </c>
@@ -12461,7 +12465,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>40179</v>
       </c>
@@ -12485,7 +12489,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>281</v>
@@ -12507,7 +12511,7 @@
         <v>40207</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>40210</v>
       </c>
@@ -12533,7 +12537,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>282</v>
@@ -12553,7 +12557,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>40238</v>
       </c>
@@ -12579,7 +12583,7 @@
         <v>40255</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>283</v>
@@ -12599,7 +12603,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>49</v>
@@ -12621,7 +12625,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>285</v>
@@ -12643,7 +12647,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>40269</v>
       </c>
@@ -12669,7 +12673,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>40299</v>
       </c>
@@ -12695,7 +12699,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>285</v>
@@ -12717,7 +12721,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>286</v>
@@ -12739,7 +12743,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>40330</v>
       </c>
@@ -12765,7 +12769,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>297</v>
@@ -12783,12 +12787,12 @@
       <c r="H384" s="39"/>
       <c r="I384" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>145.125</v>
+        <v>143.125</v>
       </c>
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>40360</v>
       </c>
@@ -12812,7 +12816,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>40391</v>
       </c>
@@ -12838,7 +12842,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>40422</v>
       </c>
@@ -12864,7 +12868,7 @@
         <v>40443</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>40452</v>
       </c>
@@ -12890,7 +12894,7 @@
         <v>40456</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>40483</v>
       </c>
@@ -12916,7 +12920,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>40513</v>
       </c>
@@ -12940,7 +12944,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="47" t="s">
         <v>224</v>
       </c>
@@ -12962,7 +12966,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>40544</v>
       </c>
@@ -12986,7 +12990,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>40575</v>
       </c>
@@ -13010,7 +13014,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>40603</v>
       </c>
@@ -13036,7 +13040,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>186</v>
@@ -13056,7 +13060,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>186</v>
@@ -13076,7 +13080,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>307</v>
@@ -13096,7 +13100,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>40634</v>
       </c>
@@ -13120,7 +13124,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>40664</v>
       </c>
@@ -13146,7 +13150,7 @@
         <v>40688</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>56</v>
@@ -13168,7 +13172,7 @@
         <v>40693</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>309</v>
@@ -13188,7 +13192,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>40695</v>
       </c>
@@ -13212,7 +13216,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>40725</v>
       </c>
@@ -13238,7 +13242,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>56</v>
@@ -13258,7 +13262,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="48"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>313</v>
@@ -13278,7 +13282,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="48"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>40756</v>
       </c>
@@ -13302,7 +13306,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>132</v>
@@ -13322,7 +13326,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>40787</v>
       </c>
@@ -13346,7 +13350,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>81</v>
@@ -13366,7 +13370,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>314</v>
@@ -13386,7 +13390,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>40817</v>
       </c>
@@ -13410,7 +13414,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>315</v>
@@ -13430,7 +13434,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>40848</v>
       </c>
@@ -13454,7 +13458,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>40878</v>
       </c>
@@ -13478,7 +13482,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>317</v>
@@ -13498,7 +13502,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="47" t="s">
         <v>223</v>
       </c>
@@ -13520,7 +13524,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>40909</v>
       </c>
@@ -13546,7 +13550,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>81</v>
@@ -13568,7 +13572,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>318</v>
@@ -13590,7 +13594,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>40940</v>
       </c>
@@ -13614,7 +13618,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>186</v>
@@ -13634,7 +13638,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>186</v>
@@ -13654,7 +13658,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>319</v>
@@ -13674,7 +13678,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>40969</v>
       </c>
@@ -13698,7 +13702,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>41000</v>
       </c>
@@ -13722,7 +13726,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>56</v>
@@ -13742,7 +13746,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>327</v>
@@ -13762,7 +13766,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>41030</v>
       </c>
@@ -13786,7 +13790,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>56</v>
@@ -13806,7 +13810,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>328</v>
@@ -13826,7 +13830,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>41061</v>
       </c>
@@ -13850,7 +13854,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>41091</v>
       </c>
@@ -13874,7 +13878,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>330</v>
@@ -13894,7 +13898,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>41122</v>
       </c>
@@ -13918,7 +13922,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>49</v>
@@ -13938,7 +13942,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>286</v>
@@ -13958,7 +13962,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>57</v>
@@ -13978,7 +13982,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>41153</v>
       </c>
@@ -14002,7 +14006,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>41183</v>
       </c>
@@ -14026,7 +14030,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>332</v>
@@ -14046,7 +14050,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>41214</v>
       </c>
@@ -14070,7 +14074,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>41244</v>
       </c>
@@ -14094,7 +14098,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>334</v>
@@ -14114,7 +14118,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="47" t="s">
         <v>222</v>
       </c>
@@ -14136,7 +14140,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>41275</v>
       </c>
@@ -14160,7 +14164,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>41306</v>
       </c>
@@ -14186,7 +14190,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>41334</v>
       </c>
@@ -14208,7 +14212,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>41365</v>
       </c>
@@ -14234,7 +14238,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>41395</v>
       </c>
@@ -14258,7 +14262,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>41426</v>
       </c>
@@ -14284,7 +14288,7 @@
         <v>41439</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>56</v>
@@ -14306,7 +14310,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>338</v>
@@ -14326,7 +14330,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -14350,7 +14354,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>41487</v>
       </c>
@@ -14374,7 +14378,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>41518</v>
       </c>
@@ -14398,7 +14402,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>41548</v>
       </c>
@@ -14422,7 +14426,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>41579</v>
       </c>
@@ -14448,7 +14452,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>343</v>
@@ -14468,7 +14472,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>41609</v>
       </c>
@@ -14492,7 +14496,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="47" t="s">
         <v>221</v>
       </c>
@@ -14514,7 +14518,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>41640</v>
       </c>
@@ -14538,7 +14542,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>41671</v>
       </c>
@@ -14564,7 +14568,7 @@
         <v>41694</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>186</v>
@@ -14584,7 +14588,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>356</v>
@@ -14604,7 +14608,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>41699</v>
       </c>
@@ -14628,7 +14632,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>41730</v>
       </c>
@@ -14654,7 +14658,7 @@
         <v>41757</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>186</v>
@@ -14674,7 +14678,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>358</v>
@@ -14692,7 +14696,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>41760</v>
       </c>
@@ -14718,7 +14722,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>359</v>
@@ -14738,7 +14742,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>41791</v>
       </c>
@@ -14762,7 +14766,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>41821</v>
       </c>
@@ -14788,7 +14792,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>56</v>
@@ -14808,7 +14812,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>361</v>
@@ -14828,7 +14832,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>41852</v>
       </c>
@@ -14852,7 +14856,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>41883</v>
       </c>
@@ -14878,7 +14882,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>363</v>
@@ -14898,7 +14902,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>41913</v>
       </c>
@@ -14922,7 +14926,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>41944</v>
       </c>
@@ -14948,7 +14952,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>369</v>
@@ -14968,7 +14972,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>41974</v>
       </c>
@@ -14990,7 +14994,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>370</v>
@@ -15010,7 +15014,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="47" t="s">
         <v>354</v>
       </c>
@@ -15032,7 +15036,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>42005</v>
       </c>
@@ -15056,7 +15060,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>42036</v>
       </c>
@@ -15082,7 +15086,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>372</v>
@@ -15102,7 +15106,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>42064</v>
       </c>
@@ -15126,7 +15130,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>56</v>
@@ -15148,7 +15152,7 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>373</v>
@@ -15168,7 +15172,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>252</v>
@@ -15188,7 +15192,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>42095</v>
       </c>
@@ -15218,7 +15222,7 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>374</v>
@@ -15238,7 +15242,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>42125</v>
       </c>
@@ -15264,7 +15268,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>375</v>
@@ -15284,7 +15288,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42156</v>
       </c>
@@ -15310,7 +15314,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>376</v>
@@ -15330,7 +15334,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>42186</v>
       </c>
@@ -15354,7 +15358,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>42217</v>
       </c>
@@ -15380,7 +15384,7 @@
         <v>42244</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>56</v>
@@ -15402,7 +15406,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>381</v>
@@ -15422,7 +15426,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>42248</v>
       </c>
@@ -15446,7 +15450,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>42278</v>
       </c>
@@ -15472,7 +15476,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>383</v>
@@ -15492,7 +15496,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42309</v>
       </c>
@@ -15518,7 +15522,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>384</v>
@@ -15538,7 +15542,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>42339</v>
       </c>
@@ -15564,7 +15568,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>385</v>
@@ -15584,7 +15588,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="47" t="s">
         <v>353</v>
       </c>
@@ -15606,7 +15610,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>42370</v>
       </c>
@@ -15626,7 +15630,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>42401</v>
       </c>
@@ -15646,7 +15650,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>42430</v>
       </c>
@@ -15670,7 +15674,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>56</v>
@@ -15692,7 +15696,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>42461</v>
       </c>
@@ -15712,7 +15716,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>42491</v>
       </c>
@@ -15732,7 +15736,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>42522</v>
       </c>
@@ -15752,7 +15756,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>42552</v>
       </c>
@@ -15772,7 +15776,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>42583</v>
       </c>
@@ -15798,7 +15802,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>56</v>
@@ -15820,7 +15824,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>42614</v>
       </c>
@@ -15846,7 +15850,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>42644</v>
       </c>
@@ -15866,7 +15870,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>42675</v>
       </c>
@@ -15890,7 +15894,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>42705</v>
       </c>
@@ -15914,7 +15918,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>269</v>
@@ -15934,7 +15938,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="47" t="s">
         <v>352</v>
       </c>
@@ -15956,7 +15960,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>42736</v>
       </c>
@@ -15982,7 +15986,7 @@
         <v>42708</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>56</v>
@@ -16004,7 +16008,7 @@
         <v>42761</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>388</v>
@@ -16026,7 +16030,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>42767</v>
       </c>
@@ -16052,7 +16056,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>389</v>
@@ -16072,7 +16076,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>42795</v>
       </c>
@@ -16096,7 +16100,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>42826</v>
       </c>
@@ -16122,7 +16126,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>42856</v>
       </c>
@@ -16148,7 +16152,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>186</v>
@@ -16168,7 +16172,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>392</v>
@@ -16188,7 +16192,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>42887</v>
       </c>
@@ -16212,7 +16216,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>42917</v>
       </c>
@@ -16236,7 +16240,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>42948</v>
       </c>
@@ -16260,7 +16264,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>42979</v>
       </c>
@@ -16280,7 +16284,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>43009</v>
       </c>
@@ -16306,7 +16310,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>399</v>
@@ -16328,7 +16332,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>43040</v>
       </c>
@@ -16354,7 +16358,7 @@
         <v>43085</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>43070</v>
       </c>
@@ -16380,7 +16384,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="47" t="s">
         <v>351</v>
       </c>
@@ -16402,7 +16406,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>43101</v>
       </c>
@@ -16426,7 +16430,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>43132</v>
       </c>
@@ -16446,7 +16450,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>43160</v>
       </c>
@@ -16466,7 +16470,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>43191</v>
       </c>
@@ -16486,7 +16490,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>43221</v>
       </c>
@@ -16510,7 +16514,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>43252</v>
       </c>
@@ -16536,7 +16540,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>403</v>
@@ -16556,7 +16560,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>43282</v>
       </c>
@@ -16576,7 +16580,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>43313</v>
       </c>
@@ -16600,7 +16604,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>43344</v>
       </c>
@@ -16624,7 +16628,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>43374</v>
       </c>
@@ -16650,7 +16654,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>186</v>
@@ -16670,7 +16674,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>406</v>
@@ -16690,7 +16694,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>43405</v>
       </c>
@@ -16714,7 +16718,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>43435</v>
       </c>
@@ -16740,7 +16744,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>407</v>
@@ -16760,7 +16764,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="47" t="s">
         <v>350</v>
       </c>
@@ -16782,7 +16786,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>43466</v>
       </c>
@@ -16802,7 +16806,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>43497</v>
       </c>
@@ -16826,7 +16830,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>43525</v>
       </c>
@@ -16852,7 +16856,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>43556</v>
       </c>
@@ -16878,7 +16882,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>56</v>
@@ -16900,7 +16904,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>43586</v>
       </c>
@@ -16926,7 +16930,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>43617</v>
       </c>
@@ -16946,7 +16950,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>43647</v>
       </c>
@@ -16966,7 +16970,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>43678</v>
       </c>
@@ -16986,7 +16990,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>43709</v>
       </c>
@@ -17012,7 +17016,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>56</v>
@@ -17034,7 +17038,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>43739</v>
       </c>
@@ -17060,7 +17064,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>186</v>
@@ -17080,7 +17084,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>56</v>
@@ -17102,7 +17106,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>43770</v>
       </c>
@@ -17122,7 +17126,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>43800</v>
       </c>
@@ -17146,7 +17150,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="47" t="s">
         <v>349</v>
       </c>
@@ -17168,7 +17172,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>43831</v>
       </c>
@@ -17192,7 +17196,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>43862</v>
       </c>
@@ -17212,7 +17216,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>43891</v>
       </c>
@@ -17232,7 +17236,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>43922</v>
       </c>
@@ -17252,7 +17256,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>43952</v>
       </c>
@@ -17272,7 +17276,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>43983</v>
       </c>
@@ -17292,7 +17296,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>44013</v>
       </c>
@@ -17318,7 +17322,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>44044</v>
       </c>
@@ -17338,7 +17342,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>44075</v>
       </c>
@@ -17358,7 +17362,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>44105</v>
       </c>
@@ -17384,7 +17388,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>44136</v>
       </c>
@@ -17404,7 +17408,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>44166</v>
       </c>
@@ -17424,7 +17428,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="47" t="s">
         <v>348</v>
       </c>
@@ -17446,7 +17450,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>44197</v>
       </c>
@@ -17466,7 +17470,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>44228</v>
       </c>
@@ -17492,7 +17496,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>44256</v>
       </c>
@@ -17512,7 +17516,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>44287</v>
       </c>
@@ -17532,7 +17536,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>44317</v>
       </c>
@@ -17552,7 +17556,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>44348</v>
       </c>
@@ -17578,7 +17582,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>49</v>
@@ -17600,7 +17604,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>47</v>
@@ -17622,7 +17626,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>413</v>
@@ -17644,7 +17648,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>44378</v>
       </c>
@@ -17670,7 +17674,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>44409</v>
       </c>
@@ -17694,7 +17698,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>44440</v>
       </c>
@@ -17714,7 +17718,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>44470</v>
       </c>
@@ -17734,7 +17738,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44501</v>
       </c>
@@ -17754,7 +17758,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>44531</v>
       </c>
@@ -17780,7 +17784,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>56</v>
@@ -17800,7 +17804,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="47" t="s">
         <v>347</v>
       </c>
@@ -17822,7 +17826,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <v>44562</v>
       </c>
@@ -17848,7 +17852,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>44593</v>
       </c>
@@ -17874,7 +17878,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>186</v>
@@ -17894,7 +17898,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>44621</v>
       </c>
@@ -17914,7 +17918,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>44652</v>
       </c>
@@ -17934,7 +17938,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>44682</v>
       </c>
@@ -17960,7 +17964,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>44713</v>
       </c>
@@ -17980,7 +17984,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>44743</v>
       </c>
@@ -18000,7 +18004,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>44774</v>
       </c>
@@ -18026,7 +18030,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>44805</v>
       </c>
@@ -18050,7 +18054,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>56</v>
@@ -18072,7 +18076,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>44835</v>
       </c>
@@ -18096,7 +18100,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>56</v>
@@ -18118,7 +18122,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>44866</v>
       </c>
@@ -18144,7 +18148,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>44896</v>
       </c>
@@ -18164,7 +18168,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>186</v>
@@ -18184,7 +18188,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>63</v>
@@ -18206,7 +18210,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="47" t="s">
         <v>417</v>
       </c>
@@ -18224,7 +18228,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>44927</v>
       </c>
@@ -18244,7 +18248,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>44958</v>
       </c>
@@ -18270,7 +18274,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>56</v>
@@ -18292,7 +18296,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>283</v>
@@ -18312,7 +18316,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>56</v>
@@ -18334,7 +18338,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>44986</v>
       </c>
@@ -18354,7 +18358,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>45017</v>
       </c>
@@ -18378,11 +18382,11 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B633" s="20"/>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A633" s="40"/>
+      <c r="B633" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C633" s="13"/>
       <c r="D633" s="39"/>
       <c r="E633" s="9"/>
@@ -18391,14 +18395,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H633" s="39"/>
+      <c r="H633" s="39">
+        <v>2</v>
+      </c>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
-    </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K633" s="48" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18414,9 +18422,9 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18432,9 +18440,9 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -18450,9 +18458,9 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -18468,9 +18476,9 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -18486,9 +18494,9 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -18504,9 +18512,9 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18522,9 +18530,9 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18540,45 +18548,45 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B642" s="20"/>
+      <c r="C642" s="13"/>
+      <c r="D642" s="39"/>
+      <c r="E642" s="9"/>
+      <c r="F642" s="20"/>
+      <c r="G642" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H642" s="39"/>
+      <c r="I642" s="9"/>
+      <c r="J642" s="11"/>
+      <c r="K642" s="20"/>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A643" s="40">
         <v>45323</v>
       </c>
-      <c r="B642" s="15"/>
-      <c r="C642" s="41"/>
-      <c r="D642" s="42"/>
-      <c r="E642" s="9"/>
-      <c r="F642" s="15"/>
-      <c r="G642" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H642" s="42"/>
-      <c r="I642" s="9"/>
-      <c r="J642" s="12"/>
-      <c r="K642" s="15"/>
-    </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="40">
+      <c r="B643" s="15"/>
+      <c r="C643" s="41"/>
+      <c r="D643" s="42"/>
+      <c r="E643" s="9"/>
+      <c r="F643" s="15"/>
+      <c r="G643" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H643" s="42"/>
+      <c r="I643" s="9"/>
+      <c r="J643" s="12"/>
+      <c r="K643" s="15"/>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A644" s="40">
         <v>45352</v>
-      </c>
-      <c r="B643" s="20"/>
-      <c r="C643" s="13"/>
-      <c r="D643" s="39"/>
-      <c r="E643" s="9"/>
-      <c r="F643" s="20"/>
-      <c r="G643" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H643" s="39"/>
-      <c r="I643" s="9"/>
-      <c r="J643" s="11"/>
-      <c r="K643" s="20"/>
-    </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A644" s="40">
-        <v>45383</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18594,9 +18602,9 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18612,9 +18620,9 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18630,9 +18638,9 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18648,9 +18656,9 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18666,9 +18674,9 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18684,9 +18692,9 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18702,9 +18710,9 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18720,9 +18728,9 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18738,9 +18746,9 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18756,9 +18764,9 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18774,9 +18782,9 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18792,9 +18800,9 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18810,9 +18818,9 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18828,9 +18836,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18846,9 +18854,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18864,9 +18872,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18882,9 +18890,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18900,9 +18908,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18918,9 +18926,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18936,9 +18944,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18954,9 +18962,9 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18972,9 +18980,9 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18990,9 +18998,9 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -19008,9 +19016,9 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -19026,9 +19034,9 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -19044,9 +19052,9 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -19062,9 +19070,9 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19080,9 +19088,9 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19098,9 +19106,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19116,9 +19124,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19134,9 +19142,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19152,9 +19160,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19170,9 +19178,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19188,9 +19196,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19206,9 +19214,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19224,9 +19232,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19242,9 +19250,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19260,9 +19268,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19278,9 +19286,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19296,9 +19304,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19314,9 +19322,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19332,9 +19340,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19350,9 +19358,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19368,9 +19376,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19386,9 +19394,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19404,9 +19412,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19422,9 +19430,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19440,9 +19448,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19458,9 +19466,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19476,9 +19484,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19494,9 +19502,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19512,9 +19520,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19530,9 +19538,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19548,9 +19556,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19565,6 +19573,24 @@
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A699" s="40">
+        <v>47027</v>
+      </c>
+      <c r="B699" s="20"/>
+      <c r="C699" s="13"/>
+      <c r="D699" s="39"/>
+      <c r="E699" s="9"/>
+      <c r="F699" s="20"/>
+      <c r="G699" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H699" s="39"/>
+      <c r="I699" s="9"/>
+      <c r="J699" s="11"/>
+      <c r="K699" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19581,10 +19607,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19607,7 +19633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19615,21 +19641,21 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -19642,7 +19668,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19671,7 +19697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>9.875</v>
       </c>
@@ -19701,17 +19727,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19732,7 +19758,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19759,7 +19785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19785,7 +19811,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19811,7 +19837,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19837,7 +19863,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19863,7 +19889,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19889,7 +19915,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19915,7 +19941,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19941,7 +19967,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19961,7 +19987,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19981,7 +20007,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20001,7 +20027,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20022,7 +20048,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20043,7 +20069,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20064,7 +20090,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20085,7 +20111,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20106,7 +20132,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20127,7 +20153,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20148,7 +20174,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20169,7 +20195,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20190,7 +20216,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20211,7 +20237,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20232,7 +20258,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20253,7 +20279,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20274,7 +20300,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20295,7 +20321,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20316,7 +20342,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20337,7 +20363,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20358,7 +20384,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20379,7 +20405,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20400,7 +20426,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20421,7 +20447,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20430,7 +20456,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20439,7 +20465,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20448,7 +20474,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20457,7 +20483,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20466,7 +20492,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20475,7 +20501,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20484,7 +20510,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20493,7 +20519,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20502,7 +20528,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20511,7 +20537,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20520,7 +20546,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20529,7 +20555,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20538,7 +20564,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20547,7 +20573,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20556,7 +20582,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20565,7 +20591,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20574,7 +20600,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20583,7 +20609,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20592,7 +20618,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20601,7 +20627,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20610,7 +20636,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20619,7 +20645,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20628,7 +20654,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20637,7 +20663,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20646,7 +20672,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20655,7 +20681,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20664,7 +20690,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20673,7 +20699,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20682,7 +20708,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/AMBION DORINDA.xlsx
+++ b/REGULAR/OJT/AMBION DORINDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349C97D1-B943-4567-BD35-9FCD32F7D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1330,7 +1329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2187,7 +2186,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2229,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2293,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2353,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2419,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2482,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2580,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2639,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2704,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2747,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2822,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3009,7 +3008,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3074,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3132,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3198,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3254,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3329,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3372,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3439,7 +3438,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,7 +3494,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3593,7 +3592,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3656,7 +3655,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,25 +3721,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K699" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K699" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3752,13 +3751,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3767,14 +3766,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4078,7 +4077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4088,7 +4087,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4096,34 +4095,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A619" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A619" activePane="bottomLeft"/>
       <selection activeCell="F15" sqref="F15"/>
-      <selection pane="bottomLeft" activeCell="K634" sqref="K634"/>
+      <selection pane="bottomLeft" activeCell="B635" sqref="B635"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4144,7 +4143,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4164,7 +4163,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4186,7 +4185,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4194,7 +4193,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4207,7 +4206,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -4224,7 +4223,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4268,7 +4267,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.110499999999945</v>
+        <v>49.360499999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4278,12 +4277,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>143.125</v>
+        <v>144.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4305,7 +4304,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>33970</v>
       </c>
@@ -4323,7 +4322,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34001</v>
       </c>
@@ -4341,7 +4340,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34029</v>
       </c>
@@ -4359,7 +4358,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34060</v>
       </c>
@@ -4379,7 +4378,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34090</v>
       </c>
@@ -4399,7 +4398,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34121</v>
       </c>
@@ -4419,7 +4418,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34151</v>
       </c>
@@ -4439,7 +4438,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34182</v>
       </c>
@@ -4459,7 +4458,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34213</v>
       </c>
@@ -4479,7 +4478,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34243</v>
       </c>
@@ -4499,7 +4498,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34274</v>
       </c>
@@ -4519,7 +4518,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>34304</v>
       </c>
@@ -4539,7 +4538,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>45</v>
       </c>
@@ -4561,7 +4560,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>34335</v>
       </c>
@@ -4581,7 +4580,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34366</v>
       </c>
@@ -4601,7 +4600,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>34394</v>
       </c>
@@ -4621,7 +4620,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34425</v>
       </c>
@@ -4643,7 +4642,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>34455</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>34486</v>
       </c>
@@ -4687,7 +4686,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>34516</v>
       </c>
@@ -4707,7 +4706,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>34547</v>
       </c>
@@ -4727,7 +4726,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>34578</v>
       </c>
@@ -4747,7 +4746,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>34608</v>
       </c>
@@ -4767,7 +4766,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>34639</v>
       </c>
@@ -4787,7 +4786,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>34669</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>44</v>
       </c>
@@ -4835,7 +4834,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34700</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>34731</v>
       </c>
@@ -4881,7 +4880,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34759</v>
       </c>
@@ -4901,7 +4900,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>34790</v>
       </c>
@@ -4921,7 +4920,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>34820</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>34851</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>34881</v>
       </c>
@@ -4993,7 +4992,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>34912</v>
       </c>
@@ -5013,7 +5012,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>34943</v>
       </c>
@@ -5033,7 +5032,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>34973</v>
       </c>
@@ -5053,7 +5052,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35004</v>
       </c>
@@ -5079,7 +5078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35034</v>
       </c>
@@ -5103,7 +5102,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>54</v>
       </c>
@@ -5125,7 +5124,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35065</v>
       </c>
@@ -5145,7 +5144,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>35096</v>
       </c>
@@ -5165,7 +5164,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35125</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>35156</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35186</v>
       </c>
@@ -5241,7 +5240,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>35217</v>
       </c>
@@ -5261,7 +5260,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35247</v>
       </c>
@@ -5281,7 +5280,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35278</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>35309</v>
       </c>
@@ -5327,7 +5326,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35339</v>
       </c>
@@ -5347,7 +5346,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35370</v>
       </c>
@@ -5367,7 +5366,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>35400</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>53</v>
       </c>
@@ -5415,7 +5414,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>35431</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>35462</v>
       </c>
@@ -5467,7 +5466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35490</v>
       </c>
@@ -5487,7 +5486,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>35521</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>35551</v>
       </c>
@@ -5533,7 +5532,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>35582</v>
       </c>
@@ -5553,7 +5552,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>35612</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>56</v>
@@ -5601,7 +5600,7 @@
         <v>35620</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>35643</v>
       </c>
@@ -5621,7 +5620,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>35674</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>35683</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>35704</v>
       </c>
@@ -5671,7 +5670,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>35735</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>35745</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>35765</v>
       </c>
@@ -5719,7 +5718,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>52</v>
       </c>
@@ -5741,7 +5740,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>35796</v>
       </c>
@@ -5765,7 +5764,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>35827</v>
       </c>
@@ -5785,7 +5784,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>35855</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>35886</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>35916</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>35947</v>
       </c>
@@ -5879,7 +5878,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>35977</v>
       </c>
@@ -5903,7 +5902,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36008</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>36028</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>80</v>
@@ -5949,7 +5948,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>36039</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>82</v>
@@ -5995,7 +5994,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36069</v>
       </c>
@@ -6019,7 +6018,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36100</v>
       </c>
@@ -6043,7 +6042,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36130</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>86</v>
@@ -6089,7 +6088,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>46</v>
@@ -6109,7 +6108,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>51</v>
       </c>
@@ -6131,7 +6130,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36161</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>36178</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>93</v>
@@ -6177,7 +6176,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36192</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -6225,7 +6224,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>94</v>
@@ -6247,7 +6246,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>93</v>
@@ -6267,7 +6266,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>36220</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>36229</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>95</v>
@@ -6313,7 +6312,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36251</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>36262</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>99</v>
@@ -6359,7 +6358,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36281</v>
       </c>
@@ -6383,7 +6382,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36312</v>
       </c>
@@ -6407,7 +6406,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36342</v>
       </c>
@@ -6431,7 +6430,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36373</v>
       </c>
@@ -6455,7 +6454,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36404</v>
       </c>
@@ -6479,7 +6478,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>36434</v>
       </c>
@@ -6503,7 +6502,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36465</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>106</v>
@@ -6549,7 +6548,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36495</v>
       </c>
@@ -6573,7 +6572,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>91</v>
       </c>
@@ -6595,7 +6594,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36526</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>109</v>
@@ -6641,7 +6640,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>36557</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>110</v>
@@ -6687,7 +6686,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36586</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>36602</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>111</v>
@@ -6733,7 +6732,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36617</v>
       </c>
@@ -6759,7 +6758,7 @@
         <v>36626</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>112</v>
@@ -6779,7 +6778,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>36647</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>36670</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>56</v>
@@ -6827,7 +6826,7 @@
         <v>36671</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>56</v>
@@ -6849,7 +6848,7 @@
         <v>36704</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>99</v>
@@ -6869,7 +6868,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>36678</v>
       </c>
@@ -6893,7 +6892,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36708</v>
       </c>
@@ -6919,7 +6918,7 @@
         <v>36713</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>115</v>
@@ -6939,7 +6938,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>36739</v>
       </c>
@@ -6963,7 +6962,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>36770</v>
       </c>
@@ -6987,7 +6986,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>36800</v>
       </c>
@@ -7011,7 +7010,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>36831</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>36844</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>119</v>
@@ -7059,7 +7058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>36861</v>
       </c>
@@ -7083,7 +7082,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>120</v>
@@ -7105,7 +7104,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="47" t="s">
         <v>90</v>
       </c>
@@ -7127,7 +7126,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>36892</v>
       </c>
@@ -7151,7 +7150,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>36923</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>125</v>
@@ -7197,7 +7196,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>36951</v>
       </c>
@@ -7221,7 +7220,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>36982</v>
       </c>
@@ -7245,7 +7244,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>37012</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>37040</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>128</v>
@@ -7291,7 +7290,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37043</v>
       </c>
@@ -7315,7 +7314,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37073</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>134</v>
@@ -7361,7 +7360,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37104</v>
       </c>
@@ -7385,7 +7384,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>37135</v>
       </c>
@@ -7405,7 +7404,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37165</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>37186</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>131</v>
@@ -7451,7 +7450,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>37196</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>56</v>
@@ -7499,7 +7498,7 @@
         <v>37210</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>47</v>
@@ -7521,7 +7520,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>132</v>
@@ -7541,7 +7540,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37226</v>
       </c>
@@ -7565,7 +7564,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>89</v>
       </c>
@@ -7587,7 +7586,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>37257</v>
       </c>
@@ -7613,7 +7612,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>138</v>
@@ -7635,7 +7634,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>37288</v>
       </c>
@@ -7661,7 +7660,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>49</v>
@@ -7683,7 +7682,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>56</v>
@@ -7705,7 +7704,7 @@
         <v>37316</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>55</v>
@@ -7727,7 +7726,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>139</v>
@@ -7749,7 +7748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37316</v>
       </c>
@@ -7773,7 +7772,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>37347</v>
       </c>
@@ -7799,7 +7798,7 @@
         <v>37348</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>141</v>
@@ -7819,7 +7818,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37377</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>56</v>
@@ -7867,7 +7866,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>37408</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37438</v>
       </c>
@@ -7909,7 +7908,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>37469</v>
       </c>
@@ -7935,7 +7934,7 @@
         <v>37483</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>56</v>
@@ -7957,7 +7956,7 @@
         <v>37489</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>142</v>
@@ -7977,7 +7976,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>37500</v>
       </c>
@@ -7997,7 +7996,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>37530</v>
       </c>
@@ -8023,7 +8022,7 @@
         <v>37552</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>80</v>
@@ -8043,7 +8042,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>37561</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>114</v>
@@ -8091,7 +8090,7 @@
         <v>37574</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>63</v>
@@ -8113,7 +8112,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>150</v>
@@ -8133,7 +8132,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>37591</v>
       </c>
@@ -8159,7 +8158,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>149</v>
@@ -8179,7 +8178,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
         <v>92</v>
       </c>
@@ -8201,7 +8200,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>37622</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>37642</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>63</v>
@@ -8249,7 +8248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>157</v>
@@ -8269,7 +8268,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>37653</v>
       </c>
@@ -8293,7 +8292,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>37681</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>37691</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>159</v>
@@ -8341,7 +8340,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37712</v>
       </c>
@@ -8365,7 +8364,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>37742</v>
       </c>
@@ -8391,7 +8390,7 @@
         <v>37749</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>163</v>
@@ -8413,7 +8412,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>37773</v>
       </c>
@@ -8437,7 +8436,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37803</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>165</v>
@@ -8483,7 +8482,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>37834</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>166</v>
@@ -8529,7 +8528,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>37865</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>37883</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>167</v>
@@ -8575,7 +8574,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>37895</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>56</v>
@@ -8623,7 +8622,7 @@
         <v>37914</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>170</v>
@@ -8643,7 +8642,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>37926</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>169</v>
@@ -8689,7 +8688,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>37956</v>
       </c>
@@ -8713,7 +8712,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>156</v>
       </c>
@@ -8735,7 +8734,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>37987</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38018</v>
       </c>
@@ -8787,7 +8786,7 @@
         <v>38050</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>177</v>
@@ -8807,7 +8806,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38047</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>38049</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>179</v>
@@ -8853,7 +8852,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="48"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38078</v>
       </c>
@@ -8877,7 +8876,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>56</v>
@@ -8897,7 +8896,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>49</v>
@@ -8917,7 +8916,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>180</v>
@@ -8937,7 +8936,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38108</v>
       </c>
@@ -8961,7 +8960,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>181</v>
@@ -8981,7 +8980,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38139</v>
       </c>
@@ -9009,7 +9008,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>75</v>
@@ -9029,7 +9028,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>38169</v>
       </c>
@@ -9053,7 +9052,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>49</v>
@@ -9073,7 +9072,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>133</v>
@@ -9093,7 +9092,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>38200</v>
       </c>
@@ -9117,7 +9116,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>76</v>
@@ -9137,7 +9136,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>38231</v>
       </c>
@@ -9161,7 +9160,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>56</v>
@@ -9181,7 +9180,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>159</v>
@@ -9201,7 +9200,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>38261</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>38274</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>114</v>
@@ -9249,7 +9248,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>182</v>
@@ -9269,7 +9268,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>38292</v>
       </c>
@@ -9295,7 +9294,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>56</v>
@@ -9317,7 +9316,7 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>183</v>
@@ -9337,7 +9336,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>38322</v>
       </c>
@@ -9361,7 +9360,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="47" t="s">
         <v>155</v>
       </c>
@@ -9383,7 +9382,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>38353</v>
       </c>
@@ -9407,7 +9406,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>187</v>
@@ -9429,7 +9428,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>38384</v>
       </c>
@@ -9453,7 +9452,7 @@
         <v>38440</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>188</v>
@@ -9475,7 +9474,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>38412</v>
       </c>
@@ -9499,7 +9498,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>186</v>
@@ -9517,7 +9516,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>189</v>
@@ -9537,7 +9536,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38443</v>
       </c>
@@ -9563,7 +9562,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>56</v>
@@ -9585,7 +9584,7 @@
         <v>38465</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>56</v>
@@ -9607,7 +9606,7 @@
         <v>38471</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>190</v>
@@ -9627,7 +9626,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>38473</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>81</v>
@@ -9675,7 +9674,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>192</v>
@@ -9695,7 +9694,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>38504</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>38517</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>114</v>
@@ -9743,7 +9742,7 @@
         <v>38524</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>109</v>
@@ -9763,7 +9762,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>38534</v>
       </c>
@@ -9787,7 +9786,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>38565</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>38580</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>170</v>
@@ -9835,7 +9834,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>38596</v>
       </c>
@@ -9859,7 +9858,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>38626</v>
       </c>
@@ -9883,7 +9882,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>38657</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>38670</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>200</v>
@@ -9929,7 +9928,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>38687</v>
       </c>
@@ -9955,7 +9954,7 @@
         <v>38699</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>201</v>
@@ -9975,7 +9974,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="47" t="s">
         <v>154</v>
       </c>
@@ -9997,7 +9996,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>38718</v>
       </c>
@@ -10021,7 +10020,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>202</v>
@@ -10041,7 +10040,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>38749</v>
       </c>
@@ -10065,7 +10064,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>38777</v>
       </c>
@@ -10089,7 +10088,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>38808</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>49</v>
@@ -10137,7 +10136,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>204</v>
@@ -10157,7 +10156,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>38838</v>
       </c>
@@ -10181,7 +10180,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>38869</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>56</v>
@@ -10229,7 +10228,7 @@
         <v>38895</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>158</v>
@@ -10249,7 +10248,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>38899</v>
       </c>
@@ -10275,7 +10274,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>56</v>
@@ -10297,7 +10296,7 @@
         <v>38904</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>56</v>
@@ -10319,7 +10318,7 @@
         <v>38910</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>81</v>
@@ -10341,7 +10340,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>81</v>
@@ -10363,7 +10362,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>56</v>
@@ -10385,7 +10384,7 @@
         <v>38929</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>206</v>
@@ -10405,7 +10404,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>38930</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>56</v>
@@ -10453,7 +10452,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>49</v>
@@ -10475,7 +10474,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>56</v>
@@ -10497,7 +10496,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>56</v>
@@ -10519,7 +10518,7 @@
         <v>38960</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>207</v>
@@ -10541,7 +10540,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>38961</v>
       </c>
@@ -10565,7 +10564,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>38991</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>39008</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>120</v>
@@ -10613,7 +10612,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>120</v>
@@ -10635,7 +10634,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>215</v>
@@ -10655,7 +10654,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39022</v>
       </c>
@@ -10679,7 +10678,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>39052</v>
       </c>
@@ -10705,7 +10704,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>217</v>
@@ -10727,7 +10726,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>218</v>
@@ -10747,7 +10746,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="47" t="s">
         <v>153</v>
       </c>
@@ -10769,7 +10768,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>39083</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>229</v>
@@ -10815,7 +10814,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39114</v>
       </c>
@@ -10841,7 +10840,7 @@
         <v>39133</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>230</v>
@@ -10861,7 +10860,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>39142</v>
       </c>
@@ -10885,7 +10884,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39173</v>
       </c>
@@ -10911,7 +10910,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>186</v>
@@ -10931,7 +10930,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>232</v>
@@ -10951,7 +10950,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>39203</v>
       </c>
@@ -10975,7 +10974,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>39234</v>
       </c>
@@ -10999,7 +10998,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39264</v>
       </c>
@@ -11025,7 +11024,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>236</v>
@@ -11045,7 +11044,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>39295</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>237</v>
@@ -11091,7 +11090,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39326</v>
       </c>
@@ -11117,7 +11116,7 @@
         <v>39336</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>56</v>
@@ -11137,7 +11136,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>238</v>
@@ -11157,7 +11156,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>39356</v>
       </c>
@@ -11181,7 +11180,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39387</v>
       </c>
@@ -11205,7 +11204,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>228</v>
@@ -11227,7 +11226,7 @@
         <v>39423</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>240</v>
@@ -11249,7 +11248,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39417</v>
       </c>
@@ -11273,7 +11272,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="47" t="s">
         <v>227</v>
       </c>
@@ -11295,7 +11294,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>39448</v>
       </c>
@@ -11321,7 +11320,7 @@
         <v>39475</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>245</v>
@@ -11341,7 +11340,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>39479</v>
       </c>
@@ -11365,7 +11364,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>39508</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>186</v>
@@ -11409,7 +11408,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>81</v>
@@ -11431,7 +11430,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>247</v>
@@ -11451,7 +11450,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>39539</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>39541</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>250</v>
@@ -11497,7 +11496,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>39569</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>39570</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>186</v>
@@ -11543,7 +11542,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>56</v>
@@ -11565,7 +11564,7 @@
         <v>39597</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>251</v>
@@ -11585,7 +11584,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>39600</v>
       </c>
@@ -11613,7 +11612,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>39630</v>
       </c>
@@ -11637,7 +11636,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>253</v>
@@ -11657,7 +11656,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>39661</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>39692</v>
       </c>
@@ -11709,7 +11708,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>56</v>
@@ -11731,7 +11730,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>255</v>
@@ -11751,7 +11750,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>39722</v>
       </c>
@@ -11777,7 +11776,7 @@
         <v>39745</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>56</v>
@@ -11799,7 +11798,7 @@
         <v>39748</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>256</v>
@@ -11819,7 +11818,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>39753</v>
       </c>
@@ -11845,7 +11844,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>56</v>
@@ -11867,7 +11866,7 @@
         <v>39771</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>56</v>
@@ -11889,7 +11888,7 @@
         <v>39778</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>257</v>
@@ -11909,7 +11908,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>39783</v>
       </c>
@@ -11933,7 +11932,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="47" t="s">
         <v>226</v>
       </c>
@@ -11955,7 +11954,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>39814</v>
       </c>
@@ -11981,7 +11980,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>263</v>
@@ -12001,7 +12000,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>39845</v>
       </c>
@@ -12025,7 +12024,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>39873</v>
       </c>
@@ -12047,7 +12046,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>265</v>
@@ -12067,7 +12066,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>39904</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>39934</v>
       </c>
@@ -12119,7 +12118,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>186</v>
@@ -12139,7 +12138,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>56</v>
@@ -12161,7 +12160,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>267</v>
@@ -12181,7 +12180,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>39965</v>
       </c>
@@ -12205,7 +12204,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>39995</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>269</v>
@@ -12251,7 +12250,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>40026</v>
       </c>
@@ -12275,7 +12274,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40057</v>
       </c>
@@ -12301,7 +12300,7 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>56</v>
@@ -12323,7 +12322,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>271</v>
@@ -12345,7 +12344,7 @@
         <v>40072</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>40087</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>40118</v>
       </c>
@@ -12397,7 +12396,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40148</v>
       </c>
@@ -12423,7 +12422,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>278</v>
@@ -12443,7 +12442,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="47" t="s">
         <v>225</v>
       </c>
@@ -12465,7 +12464,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>40179</v>
       </c>
@@ -12489,7 +12488,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>281</v>
@@ -12511,7 +12510,7 @@
         <v>40207</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>40210</v>
       </c>
@@ -12537,7 +12536,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>282</v>
@@ -12557,7 +12556,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40238</v>
       </c>
@@ -12583,7 +12582,7 @@
         <v>40255</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>283</v>
@@ -12603,7 +12602,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>49</v>
@@ -12625,7 +12624,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>285</v>
@@ -12647,7 +12646,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>40269</v>
       </c>
@@ -12673,7 +12672,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>40299</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>285</v>
@@ -12721,7 +12720,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>286</v>
@@ -12743,7 +12742,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40330</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>297</v>
@@ -12787,12 +12786,12 @@
       <c r="H384" s="39"/>
       <c r="I384" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>143.125</v>
+        <v>144.375</v>
       </c>
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>40360</v>
       </c>
@@ -12816,7 +12815,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40391</v>
       </c>
@@ -12842,7 +12841,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>40422</v>
       </c>
@@ -12868,7 +12867,7 @@
         <v>40443</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>40452</v>
       </c>
@@ -12894,7 +12893,7 @@
         <v>40456</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>40483</v>
       </c>
@@ -12920,7 +12919,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>40513</v>
       </c>
@@ -12944,7 +12943,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="47" t="s">
         <v>224</v>
       </c>
@@ -12966,7 +12965,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>40544</v>
       </c>
@@ -12990,7 +12989,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40575</v>
       </c>
@@ -13014,7 +13013,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>40603</v>
       </c>
@@ -13040,7 +13039,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>186</v>
@@ -13060,7 +13059,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>186</v>
@@ -13080,7 +13079,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>307</v>
@@ -13100,7 +13099,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>40634</v>
       </c>
@@ -13124,7 +13123,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>40664</v>
       </c>
@@ -13150,7 +13149,7 @@
         <v>40688</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>56</v>
@@ -13172,7 +13171,7 @@
         <v>40693</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>309</v>
@@ -13192,7 +13191,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>40695</v>
       </c>
@@ -13216,7 +13215,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>40725</v>
       </c>
@@ -13242,7 +13241,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>56</v>
@@ -13262,7 +13261,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="48"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>313</v>
@@ -13282,7 +13281,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="48"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>40756</v>
       </c>
@@ -13306,7 +13305,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>132</v>
@@ -13326,7 +13325,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>40787</v>
       </c>
@@ -13350,7 +13349,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>81</v>
@@ -13370,7 +13369,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>314</v>
@@ -13390,7 +13389,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>40817</v>
       </c>
@@ -13414,7 +13413,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>315</v>
@@ -13434,7 +13433,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>40848</v>
       </c>
@@ -13458,7 +13457,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>40878</v>
       </c>
@@ -13482,7 +13481,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>317</v>
@@ -13502,7 +13501,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
         <v>223</v>
       </c>
@@ -13524,7 +13523,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>40909</v>
       </c>
@@ -13550,7 +13549,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>81</v>
@@ -13572,7 +13571,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>318</v>
@@ -13594,7 +13593,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>40940</v>
       </c>
@@ -13618,7 +13617,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>186</v>
@@ -13638,7 +13637,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>186</v>
@@ -13658,7 +13657,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>319</v>
@@ -13678,7 +13677,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>40969</v>
       </c>
@@ -13702,7 +13701,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>41000</v>
       </c>
@@ -13726,7 +13725,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>56</v>
@@ -13746,7 +13745,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>327</v>
@@ -13766,7 +13765,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>41030</v>
       </c>
@@ -13790,7 +13789,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>56</v>
@@ -13810,7 +13809,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>328</v>
@@ -13830,7 +13829,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>41061</v>
       </c>
@@ -13854,7 +13853,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>41091</v>
       </c>
@@ -13878,7 +13877,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>330</v>
@@ -13898,7 +13897,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41122</v>
       </c>
@@ -13922,7 +13921,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>49</v>
@@ -13942,7 +13941,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>286</v>
@@ -13962,7 +13961,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>57</v>
@@ -13982,7 +13981,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41153</v>
       </c>
@@ -14006,7 +14005,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41183</v>
       </c>
@@ -14030,7 +14029,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>332</v>
@@ -14050,7 +14049,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41214</v>
       </c>
@@ -14074,7 +14073,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41244</v>
       </c>
@@ -14098,7 +14097,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>334</v>
@@ -14118,7 +14117,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="47" t="s">
         <v>222</v>
       </c>
@@ -14140,7 +14139,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>41275</v>
       </c>
@@ -14164,7 +14163,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>41306</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>41334</v>
       </c>
@@ -14212,7 +14211,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>41365</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41395</v>
       </c>
@@ -14262,7 +14261,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>41426</v>
       </c>
@@ -14288,7 +14287,7 @@
         <v>41439</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>56</v>
@@ -14310,7 +14309,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>338</v>
@@ -14330,7 +14329,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -14354,7 +14353,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>41487</v>
       </c>
@@ -14378,7 +14377,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41518</v>
       </c>
@@ -14402,7 +14401,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>41548</v>
       </c>
@@ -14426,7 +14425,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>41579</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>343</v>
@@ -14472,7 +14471,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>41609</v>
       </c>
@@ -14496,7 +14495,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="47" t="s">
         <v>221</v>
       </c>
@@ -14518,7 +14517,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>41640</v>
       </c>
@@ -14542,7 +14541,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>41671</v>
       </c>
@@ -14568,7 +14567,7 @@
         <v>41694</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>186</v>
@@ -14588,7 +14587,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>356</v>
@@ -14608,7 +14607,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>41699</v>
       </c>
@@ -14632,7 +14631,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>41730</v>
       </c>
@@ -14658,7 +14657,7 @@
         <v>41757</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>186</v>
@@ -14678,7 +14677,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>358</v>
@@ -14696,7 +14695,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>41760</v>
       </c>
@@ -14722,7 +14721,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>359</v>
@@ -14742,7 +14741,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>41791</v>
       </c>
@@ -14766,7 +14765,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>41821</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>56</v>
@@ -14812,7 +14811,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>361</v>
@@ -14832,7 +14831,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>41852</v>
       </c>
@@ -14856,7 +14855,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>41883</v>
       </c>
@@ -14882,7 +14881,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>363</v>
@@ -14902,7 +14901,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41913</v>
       </c>
@@ -14926,7 +14925,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>41944</v>
       </c>
@@ -14952,7 +14951,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>369</v>
@@ -14972,7 +14971,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>41974</v>
       </c>
@@ -14994,7 +14993,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>370</v>
@@ -15014,7 +15013,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="47" t="s">
         <v>354</v>
       </c>
@@ -15036,7 +15035,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>42005</v>
       </c>
@@ -15060,7 +15059,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>42036</v>
       </c>
@@ -15086,7 +15085,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>372</v>
@@ -15106,7 +15105,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>42064</v>
       </c>
@@ -15130,7 +15129,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>56</v>
@@ -15152,7 +15151,7 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>373</v>
@@ -15172,7 +15171,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>252</v>
@@ -15192,7 +15191,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>42095</v>
       </c>
@@ -15222,7 +15221,7 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>374</v>
@@ -15242,7 +15241,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>42125</v>
       </c>
@@ -15268,7 +15267,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>375</v>
@@ -15288,7 +15287,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42156</v>
       </c>
@@ -15314,7 +15313,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>376</v>
@@ -15334,7 +15333,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>42186</v>
       </c>
@@ -15358,7 +15357,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>42217</v>
       </c>
@@ -15384,7 +15383,7 @@
         <v>42244</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>56</v>
@@ -15406,7 +15405,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>381</v>
@@ -15426,7 +15425,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>42248</v>
       </c>
@@ -15450,7 +15449,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>42278</v>
       </c>
@@ -15476,7 +15475,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>383</v>
@@ -15496,7 +15495,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42309</v>
       </c>
@@ -15522,7 +15521,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>384</v>
@@ -15542,7 +15541,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42339</v>
       </c>
@@ -15568,7 +15567,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>385</v>
@@ -15588,7 +15587,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="47" t="s">
         <v>353</v>
       </c>
@@ -15610,7 +15609,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>42370</v>
       </c>
@@ -15630,7 +15629,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>42401</v>
       </c>
@@ -15650,7 +15649,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>42430</v>
       </c>
@@ -15674,7 +15673,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>56</v>
@@ -15696,7 +15695,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>42461</v>
       </c>
@@ -15716,7 +15715,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>42491</v>
       </c>
@@ -15736,7 +15735,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>42522</v>
       </c>
@@ -15756,7 +15755,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42552</v>
       </c>
@@ -15776,7 +15775,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>42583</v>
       </c>
@@ -15802,7 +15801,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>56</v>
@@ -15824,7 +15823,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>42614</v>
       </c>
@@ -15850,7 +15849,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42644</v>
       </c>
@@ -15870,7 +15869,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>42675</v>
       </c>
@@ -15894,7 +15893,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>42705</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>269</v>
@@ -15938,7 +15937,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="47" t="s">
         <v>352</v>
       </c>
@@ -15960,7 +15959,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>42736</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>42708</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>56</v>
@@ -16008,7 +16007,7 @@
         <v>42761</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>388</v>
@@ -16030,7 +16029,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>42767</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>389</v>
@@ -16076,7 +16075,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>42795</v>
       </c>
@@ -16100,7 +16099,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>42826</v>
       </c>
@@ -16126,7 +16125,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42856</v>
       </c>
@@ -16152,7 +16151,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>186</v>
@@ -16172,7 +16171,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>392</v>
@@ -16192,7 +16191,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>42887</v>
       </c>
@@ -16216,7 +16215,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42917</v>
       </c>
@@ -16240,7 +16239,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>42948</v>
       </c>
@@ -16264,7 +16263,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42979</v>
       </c>
@@ -16284,7 +16283,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>43009</v>
       </c>
@@ -16310,7 +16309,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>399</v>
@@ -16332,7 +16331,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>43040</v>
       </c>
@@ -16358,7 +16357,7 @@
         <v>43085</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>43070</v>
       </c>
@@ -16384,7 +16383,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="47" t="s">
         <v>351</v>
       </c>
@@ -16406,7 +16405,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>43101</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>43132</v>
       </c>
@@ -16450,7 +16449,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>43160</v>
       </c>
@@ -16470,7 +16469,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>43191</v>
       </c>
@@ -16490,7 +16489,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43221</v>
       </c>
@@ -16514,7 +16513,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>43252</v>
       </c>
@@ -16540,7 +16539,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>403</v>
@@ -16560,7 +16559,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>43282</v>
       </c>
@@ -16580,7 +16579,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>43313</v>
       </c>
@@ -16604,7 +16603,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>43344</v>
       </c>
@@ -16628,7 +16627,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>43374</v>
       </c>
@@ -16654,7 +16653,7 @@
         <v>43396</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>186</v>
@@ -16674,7 +16673,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>406</v>
@@ -16694,7 +16693,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>43405</v>
       </c>
@@ -16718,7 +16717,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>43435</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>407</v>
@@ -16764,7 +16763,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="47" t="s">
         <v>350</v>
       </c>
@@ -16786,7 +16785,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>43466</v>
       </c>
@@ -16806,7 +16805,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>43497</v>
       </c>
@@ -16830,7 +16829,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>43525</v>
       </c>
@@ -16856,7 +16855,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>43556</v>
       </c>
@@ -16882,7 +16881,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>56</v>
@@ -16904,7 +16903,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>43586</v>
       </c>
@@ -16930,7 +16929,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>43617</v>
       </c>
@@ -16950,7 +16949,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>43647</v>
       </c>
@@ -16970,7 +16969,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>43678</v>
       </c>
@@ -16990,7 +16989,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>43709</v>
       </c>
@@ -17016,7 +17015,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>56</v>
@@ -17038,7 +17037,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43739</v>
       </c>
@@ -17064,7 +17063,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>186</v>
@@ -17084,7 +17083,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>56</v>
@@ -17106,7 +17105,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>43770</v>
       </c>
@@ -17126,7 +17125,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43800</v>
       </c>
@@ -17150,7 +17149,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="47" t="s">
         <v>349</v>
       </c>
@@ -17172,7 +17171,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>43831</v>
       </c>
@@ -17196,7 +17195,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43862</v>
       </c>
@@ -17216,7 +17215,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43891</v>
       </c>
@@ -17236,7 +17235,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>43922</v>
       </c>
@@ -17256,7 +17255,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>43952</v>
       </c>
@@ -17276,7 +17275,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>43983</v>
       </c>
@@ -17296,7 +17295,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44013</v>
       </c>
@@ -17322,7 +17321,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44044</v>
       </c>
@@ -17342,7 +17341,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>44075</v>
       </c>
@@ -17362,7 +17361,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>44105</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>44136</v>
       </c>
@@ -17408,7 +17407,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44166</v>
       </c>
@@ -17428,7 +17427,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="47" t="s">
         <v>348</v>
       </c>
@@ -17450,7 +17449,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>44197</v>
       </c>
@@ -17470,7 +17469,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>44228</v>
       </c>
@@ -17496,7 +17495,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>44256</v>
       </c>
@@ -17516,7 +17515,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>44287</v>
       </c>
@@ -17536,7 +17535,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>44317</v>
       </c>
@@ -17556,7 +17555,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>44348</v>
       </c>
@@ -17582,7 +17581,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>49</v>
@@ -17604,7 +17603,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>47</v>
@@ -17626,7 +17625,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>413</v>
@@ -17648,7 +17647,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>44378</v>
       </c>
@@ -17674,7 +17673,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>44409</v>
       </c>
@@ -17698,7 +17697,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>44440</v>
       </c>
@@ -17718,7 +17717,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>44470</v>
       </c>
@@ -17738,7 +17737,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44501</v>
       </c>
@@ -17758,7 +17757,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>44531</v>
       </c>
@@ -17784,7 +17783,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>56</v>
@@ -17804,7 +17803,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="47" t="s">
         <v>347</v>
       </c>
@@ -17826,7 +17825,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>44562</v>
       </c>
@@ -17852,7 +17851,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>44593</v>
       </c>
@@ -17878,7 +17877,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>186</v>
@@ -17898,7 +17897,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44621</v>
       </c>
@@ -17918,7 +17917,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>44652</v>
       </c>
@@ -17938,7 +17937,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44682</v>
       </c>
@@ -17964,7 +17963,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>44713</v>
       </c>
@@ -17984,7 +17983,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>44743</v>
       </c>
@@ -18004,7 +18003,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>44774</v>
       </c>
@@ -18030,7 +18029,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>44805</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>56</v>
@@ -18076,7 +18075,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>44835</v>
       </c>
@@ -18100,7 +18099,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>56</v>
@@ -18122,7 +18121,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>44866</v>
       </c>
@@ -18148,7 +18147,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44896</v>
       </c>
@@ -18168,7 +18167,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>186</v>
@@ -18188,7 +18187,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>63</v>
@@ -18210,7 +18209,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="47" t="s">
         <v>417</v>
       </c>
@@ -18228,7 +18227,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44927</v>
       </c>
@@ -18248,7 +18247,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>44958</v>
       </c>
@@ -18274,7 +18273,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>56</v>
@@ -18296,7 +18295,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>283</v>
@@ -18316,7 +18315,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>56</v>
@@ -18338,7 +18337,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>44986</v>
       </c>
@@ -18358,20 +18357,22 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>45017</v>
       </c>
       <c r="B632" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C632" s="13"/>
+      <c r="C632" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G632" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H632" s="39">
         <v>1</v>
@@ -18382,7 +18383,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>81</v>
@@ -18404,11 +18405,13 @@
         <v>429</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>45047</v>
       </c>
-      <c r="B634" s="20"/>
+      <c r="B634" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="C634" s="13"/>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
@@ -18420,9 +18423,11 @@
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="20"/>
-    </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K634" s="48">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>45078</v>
       </c>
@@ -18440,7 +18445,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>45108</v>
       </c>
@@ -18458,7 +18463,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>45139</v>
       </c>
@@ -18476,7 +18481,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>45170</v>
       </c>
@@ -18494,7 +18499,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>45200</v>
       </c>
@@ -18512,7 +18517,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>45231</v>
       </c>
@@ -18530,7 +18535,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>45261</v>
       </c>
@@ -18548,7 +18553,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>45292</v>
       </c>
@@ -18566,7 +18571,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>45323</v>
       </c>
@@ -18584,7 +18589,7 @@
       <c r="J643" s="12"/>
       <c r="K643" s="15"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>45352</v>
       </c>
@@ -18602,7 +18607,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>45383</v>
       </c>
@@ -18620,7 +18625,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>45413</v>
       </c>
@@ -18638,7 +18643,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>45444</v>
       </c>
@@ -18656,7 +18661,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>45474</v>
       </c>
@@ -18674,7 +18679,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>45505</v>
       </c>
@@ -18692,7 +18697,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>45536</v>
       </c>
@@ -18710,7 +18715,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>45566</v>
       </c>
@@ -18728,7 +18733,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>45597</v>
       </c>
@@ -18746,7 +18751,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>45627</v>
       </c>
@@ -18764,7 +18769,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>45658</v>
       </c>
@@ -18782,7 +18787,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>45689</v>
       </c>
@@ -18800,7 +18805,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>45717</v>
       </c>
@@ -18818,7 +18823,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>45748</v>
       </c>
@@ -18836,7 +18841,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>45778</v>
       </c>
@@ -18854,7 +18859,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>45809</v>
       </c>
@@ -18872,7 +18877,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>45839</v>
       </c>
@@ -18890,7 +18895,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>45870</v>
       </c>
@@ -18908,7 +18913,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>45901</v>
       </c>
@@ -18926,7 +18931,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>45931</v>
       </c>
@@ -18944,7 +18949,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>45962</v>
       </c>
@@ -18962,7 +18967,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>45992</v>
       </c>
@@ -18980,7 +18985,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>46023</v>
       </c>
@@ -18998,7 +19003,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>46054</v>
       </c>
@@ -19016,7 +19021,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>46082</v>
       </c>
@@ -19034,7 +19039,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>46113</v>
       </c>
@@ -19052,7 +19057,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>46143</v>
       </c>
@@ -19070,7 +19075,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>46174</v>
       </c>
@@ -19088,7 +19093,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>46204</v>
       </c>
@@ -19106,7 +19111,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>46235</v>
       </c>
@@ -19124,7 +19129,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>46266</v>
       </c>
@@ -19142,7 +19147,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>46296</v>
       </c>
@@ -19160,7 +19165,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>46327</v>
       </c>
@@ -19178,7 +19183,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>46357</v>
       </c>
@@ -19196,7 +19201,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>46388</v>
       </c>
@@ -19214,7 +19219,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>46419</v>
       </c>
@@ -19232,7 +19237,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>46447</v>
       </c>
@@ -19250,7 +19255,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>46478</v>
       </c>
@@ -19268,7 +19273,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>46508</v>
       </c>
@@ -19286,7 +19291,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>46539</v>
       </c>
@@ -19304,7 +19309,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>46569</v>
       </c>
@@ -19322,7 +19327,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>46600</v>
       </c>
@@ -19340,7 +19345,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>46631</v>
       </c>
@@ -19358,7 +19363,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>46661</v>
       </c>
@@ -19376,7 +19381,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>46692</v>
       </c>
@@ -19394,7 +19399,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>46722</v>
       </c>
@@ -19412,7 +19417,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>46753</v>
       </c>
@@ -19430,7 +19435,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>46784</v>
       </c>
@@ -19448,7 +19453,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>46813</v>
       </c>
@@ -19466,7 +19471,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>46844</v>
       </c>
@@ -19484,7 +19489,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>46874</v>
       </c>
@@ -19502,7 +19507,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <v>46905</v>
       </c>
@@ -19520,7 +19525,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>46935</v>
       </c>
@@ -19538,7 +19543,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>46966</v>
       </c>
@@ -19556,7 +19561,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>46997</v>
       </c>
@@ -19574,7 +19579,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>47027</v>
       </c>
@@ -19607,10 +19612,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19633,7 +19638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19641,21 +19646,21 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -19668,7 +19673,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19697,7 +19702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>9.875</v>
       </c>
@@ -19727,17 +19732,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19758,7 +19763,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19785,7 +19790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19811,7 +19816,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19837,7 +19842,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19863,7 +19868,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19889,7 +19894,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19915,7 +19920,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19941,7 +19946,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19967,7 +19972,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19987,7 +19992,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20007,7 +20012,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20027,7 +20032,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20048,7 +20053,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20069,7 +20074,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20090,7 +20095,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20111,7 +20116,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20132,7 +20137,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20153,7 +20158,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20174,7 +20179,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20195,7 +20200,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20216,7 +20221,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20237,7 +20242,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20258,7 +20263,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20279,7 +20284,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20300,7 +20305,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20321,7 +20326,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20342,7 +20347,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20363,7 +20368,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20384,7 +20389,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20405,7 +20410,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20426,7 +20431,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20447,7 +20452,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20456,7 +20461,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20465,7 +20470,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20474,7 +20479,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20483,7 +20488,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20492,7 +20497,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20501,7 +20506,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20510,7 +20515,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20519,7 +20524,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20528,7 +20533,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20537,7 +20542,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20546,7 +20551,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20555,7 +20560,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20564,7 +20569,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20573,7 +20578,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20582,7 +20587,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20591,7 +20596,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20600,7 +20605,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20609,7 +20614,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20618,7 +20623,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20627,7 +20632,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20636,7 +20641,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20645,7 +20650,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20654,7 +20659,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20663,7 +20668,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20672,7 +20677,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20681,7 +20686,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20690,7 +20695,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20699,7 +20704,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20708,7 +20713,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/AMBION DORINDA.xlsx
+++ b/REGULAR/OJT/AMBION DORINDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="430">
   <si>
     <t>PERIOD</t>
   </si>
@@ -4102,9 +4102,9 @@
   <dimension ref="A2:K699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A619" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A625" activePane="bottomLeft"/>
       <selection activeCell="F15" sqref="F15"/>
-      <selection pane="bottomLeft" activeCell="B635" sqref="B635"/>
+      <selection pane="bottomLeft" activeCell="I636" sqref="I636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,7 +4267,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>49.360499999999945</v>
+        <v>51.860499999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4277,7 +4277,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.375</v>
+        <v>145.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12786,7 +12786,7 @@
       <c r="H384" s="39"/>
       <c r="I384" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.375</v>
+        <v>145.875</v>
       </c>
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
@@ -18412,13 +18412,15 @@
       <c r="B634" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C634" s="13"/>
+      <c r="C634" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
-      <c r="G634" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G634" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
@@ -18432,13 +18434,15 @@
         <v>45078</v>
       </c>
       <c r="B635" s="20"/>
-      <c r="C635" s="13"/>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D635" s="39"/>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
@@ -18449,7 +18453,9 @@
       <c r="A636" s="40">
         <v>45108</v>
       </c>
-      <c r="B636" s="20"/>
+      <c r="B636" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C636" s="13"/>
       <c r="D636" s="39"/>
       <c r="E636" s="9"/>
@@ -18458,10 +18464,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H636" s="39"/>
+      <c r="H636" s="39">
+        <v>1</v>
+      </c>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
+      <c r="K636" s="48">
+        <v>45119</v>
+      </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
